--- a/foreign_literary.xlsx
+++ b/foreign_literary.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>content</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>img</t>
         </is>
       </c>
     </row>
@@ -460,11 +460,6 @@
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>조앤.K.롤링</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;개정 번역판 | 해리 포터와 마법사의 돌&gt; 해리 포터 세대의, 해리 포터 세대를 위한, 해리 포터 세대에 의한 새 번역!
@@ -477,6 +472,11 @@
 어둠의 마왕 볼드모트에게 부모를 잃고 홀로 살아남은 아이, 해리는 안전을 위해 마법사가 아닌 사람인 ‘머글’ 페투니아 이모와 버논 이모부 손에 길러지며 불우한 어린 시절을 보낸다. 열한 번째 생일날, 해그리드를 통해 자신이 마법사라는 사실을 알게 된 해리는 호그와트 마법학교에 입학해 헤르미온느 그레인저, 론 위즐리라는 친구들과 함께 영생을 주는 마법사의 돌을 찾는 엄청난 모험을 시작하게 된다.</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x720 at 0x1279396D0&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,11 +488,6 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>케이시 맥퀴스턴</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;빨강, 파랑, 어쨌든 찬란&gt; 사람들의 시선과 기대로부터 자유로워지면 오롯이 드러나는 참모습
@@ -501,6 +496,11 @@
 두 사람이 서로를 알아가면서, 이 사랑스러운 소설은 가볍지만은 않은 사려 깊은 속내를 드러낸다. 알렉스와 헨리는 의무와 사적인 갈망, 원하는 것과 현실적 제약, 사회적 기대와 참다운 자기 모습의 괴리 속에서 허우적거리는 청춘이고, 모든 걸 걷어내고 나면 오롯하게 사랑스러운 괴짜와 치열한 몽상가가 남는다. 무지개처럼 다양한 빛깔로 반짝이는 서로 다른 사람들, 누구나 자기 빛깔 그대로 사랑하고 사랑받으며 살아갈 수 있는 세상을 꿈꾸는 젊음의 용기가 이 세상을 한 발 앞으로 끌고 나간다.</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x720 at 0x127E022B0&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -512,11 +512,6 @@
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>이민진</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;파친코 1&gt; 
@@ -530,6 +525,11 @@
 지난 4월 판권 계약이 종료되며 절판되었던 《파친코》는 새로운 번역과 디자인으로 한국 독자에게 돌아왔다. 첫 문장(“역사는 우리를 저버렸지만, 그래도 상관없다”)에서부터 원문의 의미를 보다 충실하게 전달하고자 했으며, 작품 특유의 속도감 있는 문체를 살리고자 노력했다. 또한 작가가 처음 의도한 구조와 흐름을 살리기 위해 총 세 파트(1부 ‘고향’, 2부 ‘모국’, 3부 ‘파친코’)로 된 원서의 구성을 그대로 따랐다. 새 출간을 기념해 ‘한국 독자들에게’ 보내는 글에는 한국인 이야기를 계속해서 쓰는 이유를 밝혔다. 작가는 “우리가 매력적이기 때문”이라며, “한국인은 지적으로나, 감성적으로나 깊이 있는 이야기의 주인공이 될 가치가 있는 이들”이기에 앞으로도 한국의 이야기를 젊은 세대들에게 들려주고 싶다며 한국 독자들에게 각별한 애정을 표했다.</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x702 at 0x127871730&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,11 +541,6 @@
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>앤디 위어</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;프로젝트 헤일메리&gt; “다음 세기까지 SF 고전으로 남을 대작”
@@ -556,6 +551,11 @@
 이번 한국어판은 [해리포터] 시리즈를 번역한 강동혁 역자가 맡아 ‘지구 멸망 위기를 앞두고서도 유쾌한 주인공 캐릭터’를 생생한 언어로 살려냈다. 특별히 이번 신간을 포함해 앤디 위어의 전작을 리커버하여 앤디 위어의 팬들에게 특별한 선물이 되도록 했다. ‘우주 3부작’ 세트 박스로 구성된 디자인은 ‘코리아 디자인 어워드’ 그래픽 부분 등에서 수상한 석윤이 디자이너가 개성 넘치는 감각을 덧입혔다.</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x687 at 0x1400C9760&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -567,11 +567,6 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>델리아 오언스</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;가재가 노래하는 곳&gt; 
@@ -586,7 +581,12 @@
 2019년 가장 많이 팔린 책, 출간 반년 만에 밀리언셀러 돌파!
 한번 손에 들면 쉽게 내려놓지 못할 경이로운 소설,
 전 세계적인 화제를 일으키고 영화로 다시 돌아오다
-2018년 8월 14일, 평생 야생동물을 연구해온 한 생태학자가 일흔이 가까운 나이에 첫 소설을 출간한다. 미국 남부의 노스캐롤라이나주 아우터뱅크스의 해안 습지를 배경으로 한 소녀의 성장담이 미국 출판계에 불러올 어마어마한 파장을 이때는 예측하지 못했다. 얼마 후, 미국 도서 업계에 강력한 영향력을 발휘하는 &lt;헬로 선샤인 북클럽&gt; 운영자이자 할리우드 스타인 리즈 위더스푼이 이 책을 발굴해 추천작으로 소개하자, 『가재가 노래하는 곳』은 단번에 「뉴욕 타임스」 베스트셀러로 뛰어올랐다. 2018년 8월 미 현지에서 출간된 후 지금까지 1,500만 부 이상 판매되며 180주(2022년 10월 기준) 간 「뉴욕타임스」 베스트셀러 목록에 올랐고, 무려 40주 연속 아마존 주간 베스트셀러 종합 1위를 기록했다. 이렇게 독자들의 꾸준한 관심과 사랑을 받아온 『가재가 노래하는 곳』은 소니 픽처스를 통해 동명의 영화로 재탄생하여 2022년 11월 2일 국내 개봉을 앞두고 있고, 그와 함께 영화 개봉 기념 『가재가 노래하는 곳』 스페셜 에디션이 새롭게 출간되었다. </t>
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x720 at 0x14040E2E0&gt;</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>에밀리 제인 브론테</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t xml:space="preserve">
 &lt;폭풍의 언덕&gt; 요크셔의 황야를 무대로 펼쳐지는 현실을 초월한 폭풍 같은 사랑
  서른 살에 요절한 작가 에밀리 브론테가 남긴 단 한 편의 걸작
  에밀리 브론테가 죽기 일 년 전에 발표한 유일한 소설. 황량한 들판 위의 외딴 저택 워더링 하이츠를 무대로 벌어지는 캐서린과 히스클리프의 비극적인 사랑, 에드거와 이사벨을 향한 히스클리프의 잔인한 복수를 그린 이 작품은 작가가 ‘엘리스 벨’이라는 가명으로 발표했을 당시에는 그 음산한 힘과 등장인물들이 드러내는 야만성 때문에 반도덕적이라는 비난을 받았다. 심지어 그녀의 언니 샬럿마저도 1850년에 출판된 소설의 서문에서 "어쭙잖은 작업장에서 간단한 연장으로 하찮은 재료를 다듬어 만든 것"이라고 말한 바 있다. 에밀리가 이 세상에 남긴 것은 이 한 편의 소설과 완성되지 않은 단편적인 문장을 포함한 193편의 시에 불과하다. 그럼에도 그녀가 불후의 문학적 명성을 얻게 된 것은, 바로 이 작품 『폭풍의 언덕』에서 보이는 빛나는 감수성과 시적이고 강렬한 필치, 그리고 새로운 문학사적 의의 때문이다. 백 년이 지난 오늘 이 소설은 셰익스피어의 『리어 왕』, 멜빌의 『백경』과도 곧잘 비교될 만큼 깊은 비극성과 시성(詩性)으로 높이 평가받고 있다.</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x711 at 0x1409CB370&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -619,19 +619,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>문예춘추사 셜록 홈즈 전집 세트</t>
+          <t>문예춘추사 셜록 홈즈 전집 세트 (전10권)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>아서 코난 도일</t>
+          <t xml:space="preserve">
+&lt;문예춘추사 셜록 홈즈 전집 세트 (전10권)&gt; 추리소설의 고전, 삽화와 함께 완역본으로 만나는 셜록 홈즈!
+『문예춘추사 셜록 홈즈 전집 세트』는 셜록 홈즈 시리즈를 출판 순서에 맞게 4편의 장편을 포함해 총 60편의 작품을 포함한 완역본 세트이다. 친절한 주석은 물론 다양한 삽화를 더해 독자들에게 더 큰 재미를 선사한다. 셜록 홈즈의 매력을 더 크게 만날 수 있는 기회가 될 것이다.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;문예춘추사 셜록 홈즈 전집 세트&gt; 추리소설의 고전, 삽화와 함께 완역본으로 만나는 셜록 홈즈!
-『문예춘추사 셜록 홈즈 전집 세트』는 셜록 홈즈 시리즈를 출판 순서에 맞게 4편의 장편을 포함해 총 60편의 작품을 포함한 완역본 세트이다. 친절한 주석은 물론 다양한 삽화를 더해 독자들에게 더 큰 재미를 선사한다. 셜록 홈즈의 매력을 더 크게 만날 수 있는 기회가 될 것이다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x681 at 0x127F89730&gt;</t>
         </is>
       </c>
     </row>
@@ -645,11 +645,6 @@
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>프레드 울만</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;동급생&gt; 
@@ -659,6 +654,11 @@
 작가 프레드 울만은 원래 독일에서 태어났지만 히틀러를 피해 영국에 정착한 화가이다. 그가 70세가 다 되어 발표한 작품인 『동급생』은 1971년 첫 출간 당시에는 별 주목을 받지 못하다가 1977년 아서 케스틀러의 서문과 함께 재출간되면서 큰 반향을 얻었고, 전 세계 20개 이상 언어로 번역되어 현대의 고전 중 하나가 되었다. 이 책은 이후 수십 년 동안 유럽 청소년들이 꼭 읽어야 할 책으로 자리 잡았고 여러 나라에서 필독 도서와 추천 도서로 선정되어 유럽에서만 매년 10만 부 이상 판매된다. 분량은 짧지만 다른 걸작 소설들과 어깨를 나란히 하기에 전혀 부족함이 없다.</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x745 at 0x127F61EB0&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -666,15 +666,64 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>노래하는 새와 뱀의 발라드</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;노래하는 새와 뱀의 발라드&gt; ★ 전 세계 1억 부 이상 판매된 베스트셀러《헝거 게임》시리즈 신작! ★
+★ USA 투데이 베스트셀러 1위 ★
+★ 뉴욕타임스 베스트셀러 1위 ★
+헝거게임 시리즈 프리퀄 《노래하는 새와 뱀의 발라드》
+수도 캐피톨을 12개 구역이 둘러싼 형태의 독재국가 판엠. 구역과 캐피톨 간의 전쟁이 끝난 지 10년이 지났지만, 여전히 캐피톨은 구역 통치를 위해 잔인한 ‘헝거 게임’을 지속한다. 매년 12개 각 구역에서 두 명씩, 총 24명의 십 대 소년 소녀들을 뽑아 거대한 경기장에 몰아넣고 마지막 단 한 명이 살아남을 때까지 서로를 죽여야만 하는 헝거 게임.
+헝거 게임 트릴로지에서 판엠을 통치한 악랄한 독재자 코리올라누스 스노우. 《노래하는 새와 뱀의 발라드》는 몰락한 가문을 극복하고 자신의 운명을 변화시킬 기회만 엿보고 있던 18세의 스노우가 제10회 헝거 게임의 학생 멘토가 되면서 시작한다. 만약 스노우가 헝거 게임에서 우승만 한다면 스노우 가문을 다시 일으킬 수 있는 기회를 얻을 수도 있을 터였다. 
+그러나 아카데미에서 최고로 꼽히는 학생인 스노우에게 배정된 조공인은 구역 최하위인 12구역의 ‘루시 그레이 베어드’였다. 가장 승률이 낮을 거라 예상되던 그녀는 게임의 시작 전부터 캐피톨의 주목을 받고, 학생 멘토들 주변에 사건이 끊이지 않으면서 제10회 헝거 게임은 점점 미궁 속으로 빠져드는데…….
+인간의 가장 사악한 충동을 영리하게 스포츠 행사로 포장한 헝거 게임.
+누군가에게는 생존, 다른 누군가에게는 엔터테인먼트!
+HUNGER GAME RULES</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x729 at 0x1401EEC10&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>하우스 메이드</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;하우스 메이드&gt; 
+전과를 숨긴 채 억만장자의 집에 가정부로 입주한 나,
+하지만 비밀을 가지고 있는 건 나만이 아니었다.
+출소 후 몇 주째 차 뒷좌석에서 먹고 자며 생활하던 나에게 드디어 마지막 기회가 찾아왔다. 한 부잣집에서 가사도우미로 일하게 된 것이다. 비록 창문도 열리지 않고 문도 밖에서만 잠글 수 있는 비좁은 다락방에서 지내야 했지만 그건 중요하지 않았다. 내 첫 일은 늘 새하얀 옷만 입는 안주인 니나가 난장판으로 만들어 놓은 주방을 치우는 것이었다. 이런 일이 매일 계속됐지만 니나는 자신이 한 일을 기억하지 못하는 것 같았고, 그녀에게 정신병이 있다는 소문도 돌았다. 온갖 괴팍한 요구에도 나는 잘리지 않기 위해 꾹 참고 일했다. 그러던 어느 날, 과묵한 외국인 정원사가 심각한 표정으로 나에게 말을 건넸다. 알아들을 수 없었지만 나중에 검색해보니 ‘위험’이라는 뜻이었다. 그 말을 들은 직후 다락방을 나가려고 손잡이를 돌렸지만 갑자기 문이 열리지 않았다. ‘날 방에 가둔 건가? 침착하자.’ 그들은 아직 내 비밀을 모른다. 내가 진짜 어떤 사람이고 뭘 할 수 있는 사람인지를….</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x703 at 0x127EFBEE0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>합본 | 해리포터와 저주받은 아이 1,2부</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>조앤.K.롤링</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;합본 | 해리포터와 저주받은 아이 1,2부&gt; 오리지널 웨스트엔드 프로덕션의 &lt;해리 포터와 저주받은 아이&gt; 공식 대본.
@@ -683,56 +732,9 @@
 J.K. 롤링과 존 티퍼니, 잭 손의 원작을 토대로 한 연극 〈해리 포터와 저주받은 아이〉는 2016년 여름 런던 웨스트엔드에서 세계 최초로 공연되었고 ‘스페셜 리허설 에디션’ 대본으로도 출간되었다. 연극은 개막과 함께 일반 관객과 비평가 모두에게 호평을 받았고 대본 역시 발간 즉시 세계적인 베스트셀러가 되었다.</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>하우스 메이드</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>프리다 맥파든</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;하우스 메이드&gt; 
-전과를 숨긴 채 억만장자의 집에 가정부로 입주한 나,
-하지만 비밀을 가지고 있는 건 나만이 아니었다.
-출소 후 몇 주째 차 뒷좌석에서 먹고 자며 생활하던 나에게 드디어 마지막 기회가 찾아왔다. 한 부잣집에서 가사도우미로 일하게 된 것이다. 비록 창문도 열리지 않고 문도 밖에서만 잠글 수 있는 비좁은 다락방에서 지내야 했지만 그건 중요하지 않았다. 내 첫 일은 늘 새하얀 옷만 입는 안주인 니나가 난장판으로 만들어 놓은 주방을 치우는 것이었다. 이런 일이 매일 계속됐지만 니나는 자신이 한 일을 기억하지 못하는 것 같았고, 그녀에게 정신병이 있다는 소문도 돌았다. 온갖 괴팍한 요구에도 나는 잘리지 않기 위해 꾹 참고 일했다. 그러던 어느 날, 과묵한 외국인 정원사가 심각한 표정으로 나에게 말을 건넸다. 알아들을 수 없었지만 나중에 검색해보니 ‘위험’이라는 뜻이었다. 그 말을 들은 직후 다락방을 나가려고 손잡이를 돌렸지만 갑자기 문이 열리지 않았다. ‘날 방에 가둔 건가? 침착하자.’ 그들은 아직 내 비밀을 모른다. 내가 진짜 어떤 사람이고 뭘 할 수 있는 사람인지를….</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>당신 인생의 이야기</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>테드 창</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;당신 인생의 이야기&gt; 
-머리를 쓰는데 가슴이 뜨거워진다! 
-이렇게 가슴 벅찬 SF라니!
-최고의 과학소설 작가, 테드 창 작품 영화화!
-「시카리오」 드니 빌뇌브 감독, 11월 개봉작 SF 「컨택트」 원작! 
-전혀 다른 차원의 소재와 전혀 다른 스타일의 전개로
-최고의 과학소설에 수여되는 모든 상을 석권한 엄청난 소설! 
-단 한 권의 작품집으로 “전 시대를 통틀어 가장 위대한 과학 단편소설 작가 중의 한 명”이라는 명성을 얻은 테드 창의 『당신 인생의 이야기』가 출간됐다. 최고의 과학소설에 수여되는 네뷸러상, 휴고상, 로커스상, 스터전상, 캠벨상, 아시모프상, 세이운상, 라츠비츠상을 모두 석권한 이 책은 과학이 줄 수 있는 최고의 지적 상상력과 소설이 줄 수 있는 최고의 철학적 사유를 선사하는 특별한 책이다. 통찰력 있는 주제를 우아하고 적격한 문체로 풀어나가는 『당신 인생의 이야기』는 SF 소재를 언급할 필요도 없이, 소설을 좋아하는 사람의 서가에 반드시 꽂혀 있어야 하는 작품이다. 아이디어를 압축해 중·단편으로 내놓은 결과물은 그 밀도가 기가 막힐 지경이다. 기막힌 상상력을 품고 있으면서도 읽고 나면 엄청난 감동이 밀려오는 여덟 편의 단편이 수록되어 있는 이 작품은 전 세계 15개국에 번역 출간되었다. 2017년 초, 그의 두 번째 작품집이 「엘리」에서 출간될 예정이다. 두 번째 작품집에는 미발표 신작 단편을 포함한 일곱 편의 작품이 실린다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x721 at 0x1421599D0&gt;</t>
         </is>
       </c>
     </row>
@@ -742,20 +744,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>세일즈맨의 죽음</t>
+          <t>개정판 | 나를 보내지 마</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>아서 밀러</t>
+          <t xml:space="preserve">
+&lt;개정판 | 나를 보내지 마&gt; “나한테 영혼이 없다고 생각하는 사람도 있나요?”
+복제 인간을 소재로 인간의 존엄성을 진지하게 성찰한 소설
+2017년 노벨 문학상 수상자이자 현대 영미권 문학을 이끌어 가는 거장 가즈오 이시구로의 대표작, 『나를 보내지 마』가 전면적 번역 개정을 거쳐 새로운 디자인과 판형으로 출간되었다. 이 책은 1990년대 후반 영국, 외부와의 접촉이 일절 단절된 기숙학교 ‘헤일셤’을 졸업한 후 간병사로 일하는 캐시의 시선을 통해 인간의 장기 이식을 목적으로 복제되어 온 클론들의 사랑과 성, 슬픈 운명을 그리고 있다.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;세일즈맨의 죽음&gt; 현대 희곡을 대표하는 거장 아서 밀러의 대표작
-세계적으로 가장 많이 공연되고 사랑받은 20세기 최고의 드라마
-현대 희곡의 거장 아서 밀러의 대표작 『세일즈맨의 죽음』은 1949년 브로드웨이에서 초연되자마자 즉시 하나의 사건으로 받아들여졌고 아서 밀러를 단숨에 현대 문학을 대표하는 작가로 끌어올렸다. 이후 오늘날까지 전 세계적으로 가장 널리 공연되고 사랑받는 미국의 대표적인 희곡 중 하나로 손꼽힌다. 『세일즈맨의 죽음』은 과거와 현재를 넘나들며 인간의 소외와 붕괴를 뿌리까지 파고드는 혁신적인 기법으로 미국 현대극에 새로운 지표를 제시했다. 초연 후 2년간 장기 공연되며 연극계 3대 상인 퓰리처 상, 토니 상, 뉴욕 연극비평가상을 휩쓸었고 영화로도 제작되어 호평을 받았다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x691 at 0x127E24310&gt;</t>
         </is>
       </c>
     </row>
@@ -765,98 +767,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>별의 계승자 전권 세트(총5권)</t>
+          <t>개정판 | 레베카</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>제임스 P. 호건</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;별의 계승자 전권 세트(총5권)&gt; SF 마니아들이 가장 사랑하며 복간을 기다려온 작품,
-세계적 SF 작가 제임스 P. 호건의 대표작 드디어 복간!
-달에서 5만 년 전 우주비행사의 시체가 발견되었다
-우주복 안의 유골은 인류와 똑같은 호모 사피엔스
-과연 그는 5만 년 전에 어떻게, 왜 달에 갔는가
-상상을 뛰어넘는 반전의 결말과 인류 기원의 수수께끼
-일본의 권위 있는 SF문학상 성운상을 세 번이나 수상한, 세계적인 SF 작가 제임스 P.호건의 대표작. 일본 SF 문학상을 수상하고, &lt;기동전사 Z건담&gt;, &lt;신비한 바다의 나디아&gt; 등 유명 애니메이션들이 앞다투어 오마주했고, 호시노 유키노부가 만화화해서 만화판 역시 2013년 성운상을 수상하기도 했다. 
-가까운 미래. 달에서 우주복을 입은 인간의 유해가 발견된다. 연대측정 결과 놀랍게도 그가 사망한 것은 5만 년 전. 온 지구가 발칵 뒤집힌 가운데 '찰리'라고 명명된 그 월인(月人)의 정체를 밝히기 위해 대규모 조사단이 꾸려진다. 모든 분야 전문가들이 총동원되어 수수께끼의 해결에 몰두한다. 
-갈수록 퍼즐 조각은 점점 더 늘어난다. '찰리'의 동료들로 보이는 유해가 몇 구 더 발굴되고, 우주선의 잔해가 모습을 드러낸다. 마지막 순간, 조사팀의 핵심 인물들은 치열한 논쟁을 통해 마침내 월인의 수수께끼를 해결하기에 이르지만, 결말에 기다리고 있는 것은 그 모든 가설을 압도하는 놀라운 반전인데…</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>파운데이션 1 - 파운데이션</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>아이작 아시모프</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;파운데이션 1 - 파운데이션&gt; 로봇 3원칙으로 잘 알려진 미래학자이자 세계 3대 SF 작가로 꼽히는 아이작 아시모프의 대표작. '파운데이션 시리즈'는 아이작 아시모프가 1942년부터 집필하여 사망에 이른 1992년까지 약 50년간 집필한 필생의 역작이자 국가와 인류의 미래를 예측하는 새로운 학문인 '심리 역사학'을 최초로 선보인 작품이다. 
-2008년 노벨경제학상을 수상한 폴 크루그먼은 '우리 사회가 어떻게 나아갈지를 예측하고 대비하여 더 나은 방향으로 이끄는 학문'인 '심리 역사학'을 전공하고 싶었으나 현실에 없는 학문이라 가장 유사한 학문인 '경제학'을 선택하게 되었다고 고백한 적이 있을 만큼 '로봇 3원칙'과 함께 아시모프를 대표하는 키워드이다. 
-에드워드 기번의 &lt;로마제국 쇠망사&gt;에서 영감을 얻어 집필된 작품인 만큼, SF라는 외피를 걷어내면 현실 정치와 국가의 흥망성쇄를 다룬 역사적 이야기들이 소설적 재미와 함께 흥미로운 이야깃거리를 선사한다. 이 작품은 휴고상, 네뷸러상, 로커스상 등을 수상했으며, 2013년 현재 할리우드에서 대작 영화로 기획 중이어서 많은 팬들로부터 &lt;반지의 제왕&gt;에 비견될 트릴로지 영화로 기대를 모으고 있다. 
-2012년에는 유력 대선 예비 후보였던 안철수 의원에 의해 '미래를 위한 노력의 중요성'을 강조하는 작품으로 인용되어 화제를 모으기도 했다. 무엇보다 이번 판본은 국내에 첫 소개되는 아시모프의 유작 &lt;파운데이션을 향하여&gt;를 포함한 완전판 시리즈이며, 과거 짜깁기와 분권, 뒤죽박죽이던 순서를 바로잡아 최초의 출간일순에 맞게 순서를 재정돈함은 물론, 두께에 상관없이 원서와 동일한 권수로 출간하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>백만장자를 위한 공짜 음식1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>이민진</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;백만장자를 위한 공짜 음식1&gt; 
-당신이 가진 것 없는 이민자의 딸이라면
-부모와 다른 눈부시고 화려한 인생을 꿈꾼다면
-능력은 저주일 수 있다.
-세계적 베스트셀러 《파친코》 이민진 작가
-‘코리안 디아스포라 삼부작’의 출발점
-*《뉴욕타임스》 에디터스 초이스, 《타임스》, 《USA투데이》 선정 올해의 책
-*출간 기념 작가 사인 인쇄, ‘한국 독자를 위한 서문’ 특별 수록
-2022년 새로운 번역으로 돌아온 《파친코》에 이어, 이민진 작가의 ‘코리안 디아스포라’ 삼부작의 첫 번째 소설인 《백만장자를 위한 공짜 음식》이 한국 독자를 찾아왔다. 1990년대 뉴욕을 배경으로 한국계 이민 2세대 여성인 케이시 한과 동생 티나 한, 친구 엘라 심의 이야기가 펼쳐진다. 언뜻 친절하고 화려해 보이는 맨해튼에서나, 비정한 월 스트리트에서나, 이민자의 고단함이 느껴지는 퀸스에서나 반은 한국인이고 반은 미국인인 이들의 삶은 결코 녹록치 않다. 재능 넘치고 좋은 교육까지 받았음에도 성공의 문턱에서 미끄러지는 이들의 좌절은 이민 1세대인 부모 세대의 것과는 다르기에 더욱 안타깝다. 섬세하게 묘사된 세대 간, 계층 간, 남녀 간의 갈등은 2022년에도 독자의 마음을 공명하게 한다.
-《백만장자를 위한 공짜 음식》은 2007년 출간되어 당시로서는 미국 문단이 주목하지 않던 재미한국인의 이야기를 생생하게 담아내 극찬을 받았다. 주인공 케이시처럼 어린 나이에 부모를 따라 미국으로 건너간 이민진 작가의 자전적인 경험이 녹아 있는 소설로도 주목받았다. 이번 한국어판에는 특별히 한국 독자를 위한 이민진 작가의 서문을 실었다. 특히 작가는 주인공에게 ‘케이시’라는 이름을 붙이게 된 이유를 처음으로 풀어놓는다. 뉴욕에서 야망 넘치는 한국인 젊은이로 산다는 것에 대한 담담한 술회는 소설과는 또 다른 결로 독자의 마음을 어루만진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>개정판 | 레베카</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>대프니 듀 모리에</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;개정판 | 레베카&gt; 앨프리드 히치콕의 영화 &lt;레베카&gt;와 
@@ -871,25 +785,25 @@
 화려한 대저택의 이면에 감추어진 죽음의 그림자
 출간 이후 단 한 번도 절판된 적 없는 고딕 미스터리의 고전
 돈 많고 수다스러운 노부인의 시중을 들며 하녀와 다름없는 생활을 하던 ‘나’는 몬테카를로의 한 호텔에서 아내와 사별한 귀족 남성 맥심을 만난다. 함께 시간을 보내며 가까워진 우리는 서둘러 결혼을 하고, ‘나’는 아름답기로 유명한 맨덜리 저택의 안주인이 되어 새 삶을 시작한다. 그러나 설레는 마음을 안고 도착한 맨덜리에는 전 부인인 죽은 레베카의 그림자가 짙게 드리워져 있다. 맥심은 여전히 그녀의 죽음에서 벗어나지 못한 듯 괴로워하고, 저택을 관리하는 댄버스 부인은 사사건건 ‘나’와 레베카를 비교하며 노골적으로 적의를 드러낸다. 아름다운 외모에 사교성까지 두루 갖추었던 레베카와 달리 ‘나’는 모든 면에서 그녀에게 못 미치는 어리고 미숙한 존재였다. 화려하지만 묘하게 음산한 대저택 맨덜리에서 ‘나’는 원인 모를 공포와 열등감에 시달리며 점점 신경질적으로 변해간다. 그리고 새하얀 안개가 사방을 뒤덮은 어느 날, 저택 인근의 바다 밑바닥에 가라앉아 있던 시체 한 구가 물 위로 떠오르면서 ‘나’는 레베카의 죽음 뒤에 감추어졌던 엄청난 비밀을 마주하게 된다.      
-고딕 미스터리에 로맨스의 요소가 가미된 『레베카』는 치밀한 사건 전개와 예측을 뒤엎는 반전, 그리고 그 이상으로 돋보이는 섬세한 내면 묘사가 압권인 작품이다. 수줍음 많고 자기표현에 서툰 ‘나’는 맨덜리의 안주인이라는 낯선 역할에 적응하느라 홀로 고군분투한다. 주변인들로부터 남편의 전 부인 레베카와 비교당하고, 자기 안의 열등감과 싸우며 하루하루를 시험대 위에 오르는 기분으로 버텨낸다. 『레베카』는 사랑하는 이와의 행복한 결혼 생활을 꿈꾸던 한 여자가 보이지도 존재하지도 않는 ‘레베카’의 힘에 짓눌려 마음속에 서서히 지옥을 만들어가는 과정을 바로 옆에서 훔쳐보는 듯 실감 나게 그린다. 듀 모리에는 평온한 일상과 죽음의 그림자가 교차하는 대저택에서 행복과 고독을 동시에 맛보는 ‘나’의 복잡한 심경 변화를 놀랄 만큼 섬세하게 묘사해냈고, 영화와 뮤지컬에는 온전히 담아낼 수 없는 원작의 심층을 꿰뚫는 심리 묘사는 『레베카』가 80년간 단 한 번도 절판되지 않고 세월을 뛰어넘어 사랑받을 수 있었던 결정적 요인이 되었다.  </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x693 at 0x127DE5EB0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>기억 전달자</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>로이스 로리</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;기억 전달자&gt; 1994년 뉴베리 상, 1993년 보스턴 글로브 혼 북 아너 상 수상작
@@ -902,6 +816,93 @@
 [기억 전달자]는 SF 소설이라는 형식, 현대 사회와 연결된 논쟁적인 소재로 청소년 문학에서 신기원을 연 작품이다. [멋진 신세계], [1984], [시녀 이야기] 등 미래 소설의 고전으로 자리 잡은 작품들은 미래를 다루면서도 지금 우리 사회의 모습에 대한 문제 제기를 한다는 점이 특징이다. 이와 마찬가지로 [기억 전달자]도 현실의 문제를 예리하게 지적하고 있다. 조너스가 사는 마을에서는 장애를 가지고 태어난 아기들이나 너무 나이가 든 노인들을 ‘임무 해제’라는 이름으로 안락사시킨다. 효율성을 헤친다는 이유로 쌍둥이 중 체중이 적게 나가는 아기도 ‘임무 해제’시키고 사람들을 모두 색맹으로 만들어 색깔 구별도 없애 놓는다. 또한 이곳은 완벽한 산아 제한 사회인데 이를 위해 사람들은 성욕을 없애는 약까지 복용한다. 이를 통해 차이와 평등, 안락사, 장애인, 산아 제한, 국가의 통제 등 현대 사회에서 논란이 되고 있는 민감한 문제들에 대해 청소년 독자들이 생각해 볼 기회를 제시한다. [기억 전달자]는 아무리 선한 목적이라 하더라도 극단적인 통제와 질서는 결국 비인간성을 낳게 된다는 메시지를 전해 준다.</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x732 at 0x127887700&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>추운 나라에서 돌아온 스파이</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;추운 나라에서 돌아온 스파이&gt; 20세기 냉전을 다룬 스파이소설이자 영국사회를 적나라하게 고발하는 존 르카레의 대표작. &lt;팅커, 테일러, 솔저, 스파이&gt;가 보다 원숙해진 중기의 대표작이라면, 르카레가 세 번째로 발표한 이 작품은 그를 본격적인 작가의 길로 들어서게 해준 초기 걸작이자 최고의 히트작이다.
+1960년대 냉전 상황이 극에 달한 시기, 각국 스파이들의 주요 활동 무대였던 베를린을 배경으로 비정한 국제 첩보전의 세계를 그리고 있는 이 소설은, 1964년 영미 최고의 베스트셀러에 오르는 기염을 토했고 또한 뛰어난 문학성으로 평단의 찬사를 받으며 서머싯 몸상, 에드거상 등을 휩쓸었다.
+냉전 상황이 극에 달한 1960년대 영국과 독일간 스파이들의 활동과 그와 관련된 이야기를 탄탄한 구성으로 엮었다. 1965년 마틴 리트가 감독하고 리처드 버턴이 주연을 맡은 영화로 제작되어 화제가 된 바 있다. 작가 특유의 긴장감 넘치는 스토리 전개가 여실히 드러나는 작품이다.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x744 at 0x140478C70&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>백만장자를 위한 공짜 음식1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;백만장자를 위한 공짜 음식1&gt; 
+당신이 가진 것 없는 이민자의 딸이라면
+부모와 다른 눈부시고 화려한 인생을 꿈꾼다면
+능력은 저주일 수 있다.
+세계적 베스트셀러 《파친코》 이민진 작가
+‘코리안 디아스포라 삼부작’의 출발점
+*《뉴욕타임스》 에디터스 초이스, 《타임스》, 《USA투데이》 선정 올해의 책
+*출간 기념 작가 사인 인쇄, ‘한국 독자를 위한 서문’ 특별 수록
+2022년 새로운 번역으로 돌아온 《파친코》에 이어, 이민진 작가의 ‘코리안 디아스포라’ 삼부작의 첫 번째 소설인 《백만장자를 위한 공짜 음식》이 한국 독자를 찾아왔다. 1990년대 뉴욕을 배경으로 한국계 이민 2세대 여성인 케이시 한과 동생 티나 한, 친구 엘라 심의 이야기가 펼쳐진다. 언뜻 친절하고 화려해 보이는 맨해튼에서나, 비정한 월 스트리트에서나, 이민자의 고단함이 느껴지는 퀸스에서나 반은 한국인이고 반은 미국인인 이들의 삶은 결코 녹록치 않다. 재능 넘치고 좋은 교육까지 받았음에도 성공의 문턱에서 미끄러지는 이들의 좌절은 이민 1세대인 부모 세대의 것과는 다르기에 더욱 안타깝다. 섬세하게 묘사된 세대 간, 계층 간, 남녀 간의 갈등은 2022년에도 독자의 마음을 공명하게 한다.
+《백만장자를 위한 공짜 음식》은 2007년 출간되어 당시로서는 미국 문단이 주목하지 않던 재미한국인의 이야기를 생생하게 담아내 극찬을 받았다. 주인공 케이시처럼 어린 나이에 부모를 따라 미국으로 건너간 이민진 작가의 자전적인 경험이 녹아 있는 소설로도 주목받았다. 이번 한국어판에는 특별히 한국 독자를 위한 이민진 작가의 서문을 실었다. 특히 작가는 주인공에게 ‘케이시’라는 이름을 붙이게 된 이유를 처음으로 풀어놓는다. 뉴욕에서 야망 넘치는 한국인 젊은이로 산다는 것에 대한 담담한 술회는 소설과는 또 다른 결로 독자의 마음을 어루만진다.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x702 at 0x127F333A0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>폭풍의 언덕</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;폭풍의 언덕&gt; &lt;추천평&gt;
+에밀리 브론테는 사실에 근거한 삶에서 자유로웠다. 그녀는 붓질 몇 번으로 육체가 필요 없는 영혼의 얼굴을 그려냈다. 그녀가 황무지에 대해 말하는 것만으로도 바람이 불고 천둥이 친다.
+- 버지니아 울프
+문학적 교양의 수준은 독자마다 다르지만 『폭풍의 언덕』은 모든 수준의 독자들을 만족시켜주는 고전 중의 고전이다.
+- 해럴드 블룸
+서정적으로 표현된, 영원히 잊히지 않을 아름다운 격정과 비극.
+- 타임스
+현대의 언어로 다시 태어난 불멸의 사랑
+에밀리 브론테의 아름답고도 열정적인 시어</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x691 at 0x1421402E0&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -909,15 +910,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>수확자 시리즈 (전3권)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;수확자 시리즈 (전3권)&gt; 북미에서만 200만 부 넘게 팔리며 전 세계에 팬덤을 양산한 &lt;수확자&gt; 시리즈가 드디어 한국에 상륙했다! 전미 도서상 수상 작가이자 전작 『드라이』로 한국 독자의 뜨거운 사랑을 받기도 했던 닐 셔스터먼은 수많은 문학상에 이름을 올릴 뿐 아니라 출간 즉시 폭발적인 호응을 얻는 단골 베스트셀러 소설가다.
+슈퍼컴퓨터가 통제하는 죽음이 사라진 완벽한 미래, 컴퓨터의 통제를 받지 않는 건 인구 조절을 위해 생명을 끝낼 임무를 맡은 &lt;수확자&gt;들뿐. 의미 있는 죽음이란 무엇인가? 생명을 끝낼 권리는 누구에게 있어야 하는가? 수확자들은 저마다의 신념을 갖고 살아 있는 사신(死神)이 되어 죽음의 낫을 휘두른다.
+&lt;수확자&gt; 시리즈는 점점 더 폭발적으로 확장되는 거대한 스케일, 매력적인 캐릭터와 화려한 전투 장면, 고도로 발달한 미래 세계의 모습 속에서 삶과 죽음의 의미까지 아우르는 철학적 질문들을 능수능란하게 녹여 낸다. 현재 유니버설 영화사에서 영화화가 진행 중이며, 완결 후에도 식지 않은 독자들의 열기가 팬덤으로 이어지며 여전히 뜨거운 관심을 모으고 있다</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x705 at 0x1400755E0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>신들은 죽임당하지 않을 것이다</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>켄 리우</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;신들은 죽임당하지 않을 것이다&gt; 『종이 동물원』의 작가 켄 리우의 한국판 두 번째 오리지널 SF 단편선
@@ -927,26 +946,81 @@
 드론 전쟁, 디지털 휴먼, 탄소 무역 전쟁 등 현실에 기반한 근미래 SF
 첫 수록 작품인 「루프 속에서」는 어릴적, 전투 드론 조종사였던 아버지의 PTSD로 인해 붕괴된 가정에서 자라난 카이라가 드론 조종사의 PTSD 피해를 경감하기 위한 로봇 제작으로 인해 벌어진 사건을 다루고 있다. 최근 우크라이나·러시아 전쟁이 드론 대리전으로 펼쳐지고 있는 등 현대전의 양상이 빠르게 바뀌고 그로 인해 생길 수 있는 여러 가능성을 켄 리우는 「루프 속에서」를 통해 담아낸다. 인간의 정신을 데이터 세계로 보내고 육신을 버리게 된 인류의 변모 과정을 그려낸 「싱귤래리티 3부작」의 프리퀄인 「포스트 모던 3부작」 중 「신들은 순순히 죽지 않을 것이다」는, 디지털화된 초기의 인격체들 사이에 벌어진 사이버 전쟁을 소재로 하고 있다. 디지털 인격들은 저마다의 능력으로 인류를 파괴하거나 보호하는 역할을 하고, 이는 결국 핵전쟁 등 인류의 실체적 위협으로 이어지는 등 지금까지 상상할 수 없던 새로운 형태의 전쟁을 그려낸다. 최근 인공지능의 빠른 성장으로 디지털 가상 인격체에 대한 관심이 커지는 상황에서, 켄 리우의 '포스트 휴먼 3부작'과 '싱귤래리티 3부작'은 곧 다가올 미래에 대한 하나의 예견서처럼 읽힌다. 「장거리 화물 비행선」은 중국 경쟁 기업에 맞서 미국의 국내 생산자를 보호하기 위해, 환경 운동 단체의 요구라는 핑계로 화물기에서 배출하는 탄소에 관한 규제를 정했다가 태양광을 이용한 중국산 화물 비행선이 미국 하늘을 뒤덮게 된 상황을 그려내어, 에너지 규제에 관한 세계적인 흐름이 어떠한 결과를 낳을지에 대한 저자의 상상을 담아내기도 하였다.
 동북아시아 3국의 역사를 다룬 세 편의 단편소설들
-켄 리우는 이미 발표된 여러 단편을 통해 일제국주의 시대의 마루타, 위안부, 미서부 개척기의 중국인, 스팀펑크로 풀어낸 19세기 홍콩, 타이완의 2.28 사건 등 동북아시아 역사에 깊은 상처로 남은 여러 소재를 SF 등의 장르로 풀어내 왔다. 이번 단편집에선 각기 중국, 한국, 일본을 무대로 한 단편소설 하나씩을 발표하였다. 명나라 말기, 청나라 군대에 의해 중국 양주에서 벌어진 대규모 학살 사건을 무대로 한 「풀을 묶어서라도, 반지를 물어 와서라도」, 조일 전쟁이었던 임진왜란을 명나라의 만력제와 이여송을 중심으로 풀어내며, 이순신의 활약상이나 거북선 등을 함께 묘사한 「북두」, 20세기 초를 배경으로 자신의 가족을 몰살한 곰을 잡기 위해 만주까지 오게 된 일본인 박사와 군인을 등장시킨 「우수리 불곰」 등, 저자의 동북아시아에 대한 꾸준한 관심이 빛을 발하는 작품들이 이번 단편집에 수록되어 있다.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+켄 리우는 이미 발표된 여러 단편을 통해 일제국주의 시대의 마루타, 위안부, 미서부 개척기의 중국인, 스팀펑크로 풀어낸 19세기 홍콩, 타이완의 2.28 사건 등 동북아시아 역사에 깊은 상처로 남은 여러 소재를 SF 등의 장르로 풀어내 왔다. 이번 단편집에선 각기 중국, 한국, 일본을 무대로 한 단편소설 하나씩을 발표하였다. 명나라 말기, 청나라 군대에 의해 중국 양주에서 벌어진 대규모 학살 사건을 무대로 한 「풀을 묶어서라도, 반지를 물어 와서라도」, 조일 전쟁이었던 임진왜란을 명나라의 만력제와 이여송을 중심으로 풀어내며, 이순신의 활약상이나 거북선 등을 함께 묘사한 「북두」, 20세기 초를 배경으로 자신의 가족을 몰살한 곰을 잡기 위해 만주까지 오게 된 일본인 박사와 군인을 등장시킨 「우수리 불곰」 등, 저자의 동북아시아에 대한 꾸준한 관심이 빛을 발하는 작품들이 이번 단편집에 수록되어 있다.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x709 at 0x1404C0340&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>파운데이션 1 - 파운데이션</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;파운데이션 1 - 파운데이션&gt; 로봇 3원칙으로 잘 알려진 미래학자이자 세계 3대 SF 작가로 꼽히는 아이작 아시모프의 대표작. '파운데이션 시리즈'는 아이작 아시모프가 1942년부터 집필하여 사망에 이른 1992년까지 약 50년간 집필한 필생의 역작이자 국가와 인류의 미래를 예측하는 새로운 학문인 '심리 역사학'을 최초로 선보인 작품이다. 
+2008년 노벨경제학상을 수상한 폴 크루그먼은 '우리 사회가 어떻게 나아갈지를 예측하고 대비하여 더 나은 방향으로 이끄는 학문'인 '심리 역사학'을 전공하고 싶었으나 현실에 없는 학문이라 가장 유사한 학문인 '경제학'을 선택하게 되었다고 고백한 적이 있을 만큼 '로봇 3원칙'과 함께 아시모프를 대표하는 키워드이다. 
+에드워드 기번의 &lt;로마제국 쇠망사&gt;에서 영감을 얻어 집필된 작품인 만큼, SF라는 외피를 걷어내면 현실 정치와 국가의 흥망성쇄를 다룬 역사적 이야기들이 소설적 재미와 함께 흥미로운 이야깃거리를 선사한다. 이 작품은 휴고상, 네뷸러상, 로커스상 등을 수상했으며, 2013년 현재 할리우드에서 대작 영화로 기획 중이어서 많은 팬들로부터 &lt;반지의 제왕&gt;에 비견될 트릴로지 영화로 기대를 모으고 있다. 
+2012년에는 유력 대선 예비 후보였던 안철수 의원에 의해 '미래를 위한 노력의 중요성'을 강조하는 작품으로 인용되어 화제를 모으기도 했다. 무엇보다 이번 판본은 국내에 첫 소개되는 아시모프의 유작 &lt;파운데이션을 향하여&gt;를 포함한 완전판 시리즈이며, 과거 짜깁기와 분권, 뒤죽박죽이던 순서를 바로잡아 최초의 출간일순에 맞게 순서를 재정돈함은 물론, 두께에 상관없이 원서와 동일한 권수로 출간하였다.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x721 at 0x127E1C460&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>모든 것을 기억하는 남자</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;모든 것을 기억하는 남자&gt; 2015 아마존 베스트 오브 베스트셀러 
+뉴욕타임스 베스트셀러 1위 영국 타임스 베스트셀러 1위 
+5만 건에 달하는 굿리즈, 아마존 독자 리뷰 
+전 세계 1억 1천만 부 판매, 32권의 전미 베스트셀러, 
+“세계에서 가장 성공적인 스릴러 작가” 데이비드 발다치 신작 소설 
+“자살하고 싶습니다. 이게 다예요. 더는 할 말이 없네요.” 
+그는 모든 것을 기억한다 
+그러나 가족이 무참히 살해당하자, 그 능력은 저주가 된다 
+“더할 나위 없는 속도감, 독창적인 캐릭터, 저항할 수 없이 강렬한 이야기. 
+이 소설을 감히 걸작이라 부르고 싶다”_《워싱턴포스트》
+'거장'이라는 이름은 하루아침에 붙지 않는다. 그러나 데뷔 후 20년 동안 30권이 넘는 스릴러와 미스터리를 써내며 그 모든 작품을 베스트셀러로 만든 작가라면 이름 앞에 '거장'이라는 수식어를 붙이기에 충분하지 않을까? 
+전 세계 80개국 45개 언어로 출간되어 1억 1천만 부라는 어마어마한 판매고를 올린 작가, 출간 수익을 기준으로 명실공히 세계에서 가장 성공적인 범죄소설 작가, '거장' 데이비드 발다치의 신작 『모든 것을 기억하는 남자』가 북로드에서 출간되었다. 『모든 것을 기억하는 남자』는 과잉기억증후군을 앓고 있는 경찰이 가족의 죽음을 목도하고 살인자를 추적해나가는 이야기를 담은 미스터리 스릴러로, "미국 스릴러의 걸작 탄생!"이라는 극찬을 받으며 미국과 영국, 호주에서 베스트셀러 1위를 차지했다. </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x718 at 0x1279E4640&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>1984</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>조지 오웰</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;1984&gt; 인간의 자유의지와 감정마저 지배하는 디스토피아 사회의
@@ -955,83 +1029,9 @@
 1984년 오세아니아는 당과 총수 빅 브라더에 대한 맹목적인 충성을 강요하는 극단적인 전체주의 사회다. 언제 어디서나 사상경찰, 텔레스크린, 마이크가 당원의 사생활을 감시하고 당의 영속성을 위해 과거의 사건을 날조하고 말살해 진실을 왜곡한다. 인간의 내밀한 본능까지 통제하는 체제에 회의를 느낀 윈스턴은 은밀히 당의 전복을 꿈꾸지만, 사상경찰에 붙잡혀 지독한 고문을 당하며 인간의 존엄성을 위협받게 되는데….</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>개정판 | 나를 보내지 마</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>가즈오 이시구로</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;개정판 | 나를 보내지 마&gt; “나한테 영혼이 없다고 생각하는 사람도 있나요?”
-복제 인간을 소재로 인간의 존엄성을 진지하게 성찰한 소설
-2017년 노벨 문학상 수상자이자 현대 영미권 문학을 이끌어 가는 거장 가즈오 이시구로의 대표작, 『나를 보내지 마』가 전면적 번역 개정을 거쳐 새로운 디자인과 판형으로 출간되었다. 이 책은 1990년대 후반 영국, 외부와의 접촉이 일절 단절된 기숙학교 ‘헤일셤’을 졸업한 후 간병사로 일하는 캐시의 시선을 통해 인간의 장기 이식을 목적으로 복제되어 온 클론들의 사랑과 성, 슬픈 운명을 그리고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>사라진 소녀들의 숲</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>허주은</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;사라진 소녀들의 숲&gt; 전 세계인을 사로잡은 흥미진진하고 매력적인 한국적 서사
-마지막까지 읽기를 멈출 수 없는 몰입감!
-“진실에 가까워질수록 더해가는 긴장감과 통쾌함, 동시에 페이지가 줄어드는 아쉬움 탓에 책을 읽는 동안 다채로운 감정으로 몸 둘 바를 몰랐다.” - 소설가 천선란 추천
-★★★ 미국 경제 전문지 『포브스』가 선정한 2022년 가장 기대되는 작가 ★★★
-★★★ 2022년 화이트 파인 어워드 최종 후보 ★★★
-★★★ 2년 연속 에드거 앨런 포 어워드 최종 후보 ★★★
-★★★ 미국도서관협회 선정 최고의 소설 ★★★
-한국의 역사와 문화에 바탕을 둔 작품 분위기, 탄탄한 서사 속에 치밀한 미스터리 장치를 가미한 필력으로 한국이 아닌 세계에서 먼저 이름을 알린 작가 허주은의 장편소설 『사라진 소녀들의 숲』이 미디어창비에서 출간되었다. 작가는 이번 작품의 배경에 한국인들에게도 생소한 역사, 조선 세종 대까지 존재했던 공녀(貢女) 제도를 앉혀놓는다. 이에 얽힌 제주 한 마을의 비극, 그 비극에 긴박하게 연결된 가족사, 나아가 가부장 시대 조선 여성들의 삶을 다층적으로 엮어내며 미스터리한 사건의 중심으로 독자들을 끌어들인다. 
-가장 먼저 해외 독자들이 한국 중세를 배경으로 한 이 낯선 이야기에 빠져들었다. 2021년 북미에서 먼저 출간된 『사라진 소녀들의 숲』(The Forest of Stolen Girls)은 2022년 캐나다 최대 규모 독서 프로그램인 ‘독서의 숲’ 화이트 파인 어워드 최종 후보, 2021년과 2022년 에드거 앨런 포 어워드 최종 후보에 올랐다. 그뿐 아니라 미국도서관협회(YALSA) 청소년을 위한 최고의 소설, 청소년도서관조합(JLG) 추천 도서로 연속 선정되는 등 국내 출간 전부터 이미 성인은 물론 청소년 독자들에게까지 뜨거운 주목을 받고 있는 작품이다.
-토론토대학교에서 역사와 문학을 전공한 이력답게 그의 작품은 역사, 특히 한국의 역사를 소재로 삼고 있는 것이 특징이다. 『뼈의 침묵』(The Silence of Bones),『붉은 궁』(The Red Palace) 등 연이어 발표한 소설 모두 한국의 역사에 대한 깊은 이해를 바탕으로 쓰여졌다. “지금 제가 쓰는 책들은 전부 한국 역사에 바치는 러브레터”라고 밝히는 저자는 ‘한국’이라는 단어가 낯선 모든 이들을 ‘가장 한국적인 이야기’로 사로잡으며 한국계 베스트셀러 작가로서 입지를 굳혀가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>변신</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>프란츠 카프카</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;변신&gt; 올림푸스 세계문학전집 - 고전 읽기의 즐거움
-"간단해 보이는 이야기들이 아주 강력한 힘으로 다가오는가 하면, 아름답고 지혜로운 분위기가 나를 감싸고, 깊은 생각을 불러일으킨다."
-어제, 오늘 그리고 내일도 함께 할 불멸의 명작들을 엄선하여 새로운 번역으로 펴내는 올림푸스 세계문학 5권 변신을 소개합니다.
-《변신 Metamorphosis》
-《변신》(원제: Die Verwandlung)은 프란츠 카프카의 중편 소설이다. 어느날 아침 눈을 뜨고 나니, 거대한 벌레로 변해버린 한 남성과 그를 둘러싼 가족들의 전말을 그린 소설이며, 카프카의 작품 중 가장 널리 알려져 있다. 1912년 집필하여, 1915년 쿠르트 볼프 출판사에서 출판하였다.
-변신은 카프카가 살아있을 때 출판된 소수 작품 중의 하나이다. 벌레로 변한 주인공에게 벌어지는 사건을 냉정하면서도 사실적인 문체로 잘 풀어나갔다. 주인공이 처해 있는 상황은 인생이 어떻게 전개될지 모르는 절망적인 생활을 상징하는 것이며 우리들의 억압된 소망들을 표현하기도 한다. 공포로 다가온 주인공의 모습을 통해 가족들의 비인간성이 드러나며 가족의 참모습이 무엇인지 다시 한번 생각해보게 한다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x702 at 0x140029850&gt;</t>
         </is>
       </c>
     </row>
@@ -1041,18 +1041,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>불과 피 : 얼음과 불의 노래외전</t>
+          <t>AFTER 애프터 1. 치명적인 남자</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>조지 R. R. 마틴</t>
+          <t xml:space="preserve">
+&lt;AFTER 애프터 1. 치명적인 남자&gt; 
+#미국소설 # 로맨스소설 
+“내일 헤어져도, 오늘은 널 갖고 싶어.” 
+완벽하게 다른 두 남녀가 만나 진정한 사랑을 찾아가는 과정 속에서 그려지는 배신과 진실, 혼란과 고통, 정체성과 성장에 대한 이야기. “우리 사랑을 어떻게 확신하지?” 충격적인 반전이 거듭되지만 서로에게 끌리는 마음을 주체할 길 없는 이들의 사랑은 과연 어떤 결말을 맺을까. 
+말라버린 연애세포를 촉촉하게 깨우는 
+ 본격 애간장 연애 판타지! 
+2년 사귄 연하 남친과 키스 이상은 해본 적 없는 철벽 엄친딸 테사와 만나는 여자마다 건드리고도 연애는 절대로 하지 않는 나쁜 남자의 전형 하딘. 결코 어울릴 수 없는 이 둘이 믿을 수 없을 정도로 완벽하고 뜨거운, 아슬아슬하고도 위태로운 사랑을 시작한다. 
+하딘을 잘 아는 친구들은 한결같이 테사에게 “하딘을 조심하라”고 경고하지만, 테사는 친구들이 모르는 하딘의 전혀 다른 내면을 하나씩 알아가게 되고, 그를 통해 자신의 내면 또한 새롭게 발견하면서 서서히 그에게 빠져든다. 
+하지만 그녀를 사랑한다던 그는 여전히 수상한 언행을 일삼고, 전 섹스파트너 몰리는 계속해서 그들의 주변을 맴돈다. 급기야 미스터리한 친구들마저 등장해 혼란을 더하는데… 하딘은 정말 바닥을 모르는 쓰레기일까, 아니면 누군가에게 길들여지기를 기다리는 야생마일까? 
+세계 최대 전자책 커뮤니티 ‘왓패드(Wattpad)’ 15억 뷰 기록! </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;불과 피 : 얼음과 불의 노래외전&gt; 드라마 [왕좌의 게임] 프리퀄 철왕좌 최초의 주인들, 드래곤 가문의 연대기가 시작된다 [얼음과 불의 노래] 300년 전 타르가르옌 가문의 연대기 드라마 [왕좌의 게임] 시리즈의 원작 [얼음과 불의 노래] 시리즈의 프리퀄. [얼음과 불의 노래]는 가상의 대륙 웨스테로스를 무대로 왕가 타르가르옌 가문을 내쫓고 왕좌에 앉은 바라테온 가문의 이야기로 시작하는 대서사시이다. 그간 본편에서 타르가르옌 가문의 이야기는 소설의 큰 축을 차지하는 동시에 많은 궁금증을 자아냈다. 그들은 왜 웨스테로스 대륙으로 왔던 걸까? 어떻게 그들이 일곱 개의 나라를 하나의 왕국으로 만들 수 있었을까? 그들은 왜 몰락할 수밖에 없었는가? 『불과 피』는 본편에 흩뿌려진 여러 가지 단서들을 맞춰 어림짐작하던 그들의 역사를 제대로 만나볼 수 있는 기회다. ‘최고학사 길데인’이라는 인물이 쓰고 조지 R. R. 마틴이 옮겼다는 식으로 가상의 역사서 형식을 취하면서 본편과는 다른 방식으로 진행되며, 만화판 [스타워즈] [아바타] 시리즈 등에서 현실감 넘치는 그림을 그렸던 더그 휘틀리의 삽화가 80여 장 포함되었다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x694 at 0x140B31E80&gt;</t>
         </is>
       </c>
     </row>
@@ -1062,28 +1071,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>내일 또 내일 또 내일</t>
+          <t>세계문학 단편선 07 하워드 필립스 러브크래프트</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>개브리얼 제빈</t>
+          <t xml:space="preserve">
+&lt;세계문학 단편선 07 하워드 필립스 러브크래프트&gt; 에드거 앨런 포를 계승한 20세기 공포문학의 제왕 하워드 필립스 러브크래프트, 그가 펼쳐 보이는 코스믹 호러의 일대 장관!
+‘인류의 가장 오래되고 강력한 감정은 공포다. 그리고 가장 오래되고 강력한 공포는 미지의 것에 대한 공포다.’ 하워드 필립스 러브크래프트가 「문학에서의 초자연적인 공포」라는 글에서 내린 이 정의만큼 공포를 명확하게 설명하는 문장도 없을 것이다. 
+에드거 앨런 포의 계승자로 20세기 공포문학의 제왕이라고 불리는 러브크래프트는 공포의 본질을 꿰뚫은 통찰력을 문학에 관철하고 실현시킨 작가이다. 살아생전 출판사에 투고하는 원고마다 출간을 거절당하고 대중들의 무관심 속에서 불우한 짧은 삶을 마쳤지만 현대 공포문학과 환상문학, 그리고 대중문화 전반에 끼친 러브크래프트의 영향은 실로 지대하다. 스티븐 킹, 클라이브 바커, 로버트 블로흐와 같은 저명한 공포소설가들, 라틴아메리카 마술적 리얼리즘의 선구자 호르헤 루이스 보르헤스, 조지 마틴, 레이 브래드버리에 이르는 작가들을 비롯하여 앨런 무어, 닐 게이먼, 이토 준지, 기예르모 델 토로, 존 카펜터, 스튜어트 고든에 이르기까지, 미술과 만화와 영화 장르의 장인들에게도 러브크래프트의 코스믹 호러는 창작의 영감을 얻는 원천이 되었다. 
+러브크래프트가 창조한 크툴루 신화는 하나의 문화 현상으로까지 도약하여 끊임없이 성장하고 재생산되는 문화적 ‘오픈 소스’로서의 생명력을 획득했고, 크툴루를 비롯해 가상의 도시 아컴은 만화, 게임, 음악 등의 서브컬처에서 무수히 변주되면서 그 자체로 살아 진화하는 공간이 되었다. 금지된 마법의 지식의 담긴 가상의 책 『네크로노미콘』은 하버드 대학 도서관에서 열람 문의가 꾸준히 들어올 만큼 실존하는 책으로 믿어질 뿐 아니라 아예 그 이름을 내건 위서들이 실제로 제작되어 판매되기도 한다. 러브크래프트의 문학은 바야흐로 환상이 실재가 되고 실재가 환상이 되는 사차원적 세계이다. 이처럼 현대에 들어 러브크래프트의 공포문학은 그 파급력이 점점 더 커지고 있다.  
+17세기 청교도 이주자들이 식민지를 건설했던 뉴잉글랜드 지역의 유서 깊은 가문에서 태어난 러브크래프트는 미국 고딕문학의 선배인 너새니얼 호손과 특히 에드거 앨런 포의 작품세계와 밀접한 연관이 있다. 지옥과 심판의 묵시에 대한 청교도적인 두려움을 깔고 있는 호손과 포의 작품들처럼 러브크래프트의 작품들 역시 기독교적인 최후의 심판의 영향이 짙게 깔려 있다. 낡은 저택, 고성, 폐허, 황폐한 자연 등 인간 문명의 쇠락과 몰락을 암시하는 배경들은 현대인들이 오래되고 잊혀진 역사와 만나는 장치라고 할 수 있다. 러브크래프트 소설에서의 고딕적인 배경은 단순한 무대가 아니라 그 자체로 작품의 주제이고 등장인물들과 마찬가지로 독자에게 말을 거는 주체이다.
+러브크래프트 공포문학의 중요한 또 하나의 요소는 SF적인 소재이다. 어릴 적부터 천문학과 화학에 심취했던 러브크래프트는 과학을 작품의 주요 모티프로 삼았고 그의 작품 중 상당수는 SF로도 분류가 가능하다. 운석 충돌로 황폐해진 한 농장의 일대기를 그린 「우주에서 온 색채」는 천문학적 통찰을 토대로 바이러스나 핵으로 초토화되는 인류의 자화상을 예견한 수작이다. 고성을 배경으로 벌어지는 인신 제의의 공포를 담은 「벽 속의 쥐들」은 한 가문의 몰락에 관한 일대기를 다윈주의 이론으로 해석하는 독창성을 발휘한다. 「금단의 저택」은 뱀파이어 이야기에 물리학과 화학의 견지를 차용한 독특한 SF이며, 「시체를 되살리는 허버트 웨스트」는 『프랑켄슈타인』의 계보를 잇는 작품으로 의학도의 실험을 통해 생명과 죽음의 본질에 대한 질문을 던지고, 대표작 「크툴루의 부름」에서는 프레이저의 『황금 가지』에서 시작되는 고대 종교와 민속에 대한 폭넓은 인류학적 관심을 선보인다.
+크툴루 신화로 대표되는 고대 종교와 신화, 주술에 관한 관심은 러브크래프트의 문학 세계를 이루는 요소 중 가장 독특한 것이라 할 수 있을 것이다. 크툴루, 아자토스, 요그 소토스, 니알라토텝과 같은 러브크래프트 작품 속 일련의 신들은 인간에 대한 우주의 잔혹한 무관심을 표상하는 외계 존재일 뿐 사실상 신이라고 할 수 없다. 인간과 그들의 운명을 의인화한 그리스 신화의 신들 또한 공명정대함과는 거리가 멀지만 러브크래프트의 작품 속 신들은 인간적인 요소조차 전혀 없는 그저 사악한 악령일 뿐이다. 그들을 신으로 섬기는 고대 종교와 제의는 그들의 사악한 의지를 어떻게든 달래기 위한 절망적 노력에 불과하다. 인간에 대해 악의를 갖고 그들을 파멸시키려는 거대한 힘은 실체를 드러내지 않고 오직 사악한 악의로만 암시된다. 거대하고 불가해한 신화와 우주의 암흑의 힘은 끊임없이 인류를 위협한다. 그들은 모두 인간에게 적대적이다. 그 적대는 어떤 신의 섭리나 선악에 따른 천벌도, 단죄도, 복수도, 인간이 이해할 수 있는 그 무엇도 아니다. 태곳적 존재들과 미지의 것들이 대체 무엇을 원하고 왜 인간을 파멸로 몰아가는지 독자들은 알 수 없다. 고딕문학의 전통에 과학과 신화학을 결합시킨 러브크래프트의 공포문학은 미증유의 공포를 창조해 현재까지도 수많은 독자들을 전율하게 만들고 있다.
+공포는 미지의 것으로부터 온다. 인간 게놈 지도가 분석되고 태양계 저 너머까지 탐사선을 쏘아 보내는 등 과거에 미지의 것에 속했던 영역들이 속속 인간 지식의 체계로 수렴되고 있다. 신화와 종교에 의존했던 인간의 기원과 우주의 모습에 관해 과학은 상당할 정도로 그 답을 제시해 놓고 있다. 하지만 그러한 지식의 발전으로도 파악할 수 없는 신화와 종교의 영역, 파멸에 대한 두려움 등은 인간 무의식 깊숙한 곳에 잠재되어 있다. 러브크래프트의 공포문학은 해소할 길 없는 인간의 원초적인 두려움을 환기하게 만드는 강력한 촉매이다.
+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;내일 또 내일 또 내일&gt; 플레이 버튼을 누르면 영원히 다시 시작되는
-내일 또 내일 또 내일
-★ 2022 아마존 올해의 책 1위 ★ 40주 이상 &lt;뉴욕 타임스&gt; 베스트셀러
-★ 영미권 100만 부 이상 판매 ★ 파라마운트 픽처스 제작 영화화 확정
-★ 지미 팰런 투나잇 쇼 북클럽 선정 ★ 굿리즈 초이스 어워드 수상
-   책으로 이어진 사람들의 따뜻한 이야기를 그린 세계적인 베스트셀러 『섬에 있는 서점』(2014)과 여성의 현실을 생생히 그려낸 『비바, 제인』(2017)으로 유머러스한 문장, 창의적인 구성, 삶에 대한 깊은 통찰을 선보이며 독자와 평단을 사로잡은 개브리얼 제빈의 장편소설 『내일 또 내일 또 내일』(2022)이 출간되었다. 소꿉친구인 두 사람이 함께 게임을 만들게 되면서 일어나는 일을 다룬 이 책은 대학생들이 기발한 아이디어와 플로피디스크 하나로 게임계를 뒤집을 수 있었던 1990년대 ‘문화의 개척시대’를 배경으로 한 청춘 로맨스이자 성장물이다. 지적이면서도 다정한 제빈의 작품세계를 집약적으로 보여주는 마스터피스로, 롤플레잉 게임(RPG), 이인칭시점, 인터뷰, 게임 채팅 등 다양한 형식을 활용해 일과 사랑, 청춘이라는 삶의 주요한 키워드를 탐구한다. 2022년 아마존 올해의 책 1위에 선정되고 40주 이상 &lt;뉴욕 타임스&gt; 베스트셀러 자리를 지킨 현재 미국에서 가장 뜨겁고 현대적인 소설이다.
-   셰익스피어의 희곡 &lt;맥베스&gt; 5막 5장의 독백에서 온 제목 ‘내일 또 내일 또 내일’은 게임이 지닌 무한한 재시작의 속성을 암시한다. 언제나 새로운 내일이 있고, 무엇도 영원하지 않다는 믿음은 &lt;맥베스&gt;에서 비관적으로 독해되는 것과는 달리 제빈의 소설에서 현재에 대한 긍정과 무한한 가능성으로 확장된다. 『내일 또 내일 또 내일』은 또다른 세계, 또다른 선택과 결과, 또다른 삶이라는 무궁무진한 가능성을 그려보는 게이머의 유연한 사고와 태도를 우리에게 전하는, 모든 면에서 바다처럼 깊고 방대한 작품이다.
-“게임이 뭐겠어?” 마크스가 말했다. “내일 또 내일 또 내일이잖아. 무한한 부활과 무한한 구원의 가능성. 계속 플레이하다보면 언젠가는 이길 수 있다는 개념. 그 어떤 죽음도 영원하지 않아, 왜냐하면 그 어떤 것도 영원하지 않으니까.” _본문 중에서
-   우리를 절망에서 구원하는 건,
-   기꺼이 놀고자 하는 의지
-</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x693 at 0x127C4BB20&gt;</t>
         </is>
       </c>
     </row>
@@ -1093,136 +1100,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>콜 미 바이 유어 네임</t>
+          <t>대지</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>안드레 애치먼</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;콜 미 바이 유어 네임&gt; 루카 구아다니노 감독, 제임스 아이보리 각본, 티모시 샬라메·아미 해머 주연 영화
-《콜 미 바이 유어 네임(CALL ME BY YOUR NAME)》 원작 소설
-《뉴욕 타임스》 베스트셀러
-《USA 투데이》 베스트셀러
-《로스앤젤레스 타임스》 베스트셀러
-《벌처 북클럽》 추천 도서
-《워싱턴 포스트》 선정 올해 최고의 책
-《시카고 트리뷴》 선정 올해의 책
-《시애틀 타임스》 선정 올해의 책
-《뉴욕 타임스》 선정 올해의 주목할 만한 책
-《샌프란시스코 크로니클》 선정 올해의 주목할 만한 책
-‘첫사랑의 마스터피스’ 안드레 애치먼의 감각적인 언어로 열일곱 살 엘리오와 스물네 살 올리버 두 남자의 사랑을 섬세하게 그려 낸 장편소설. 2007년 해외 출간 당시 람다 문학상 게이 소설 부문에서 수상하는 등 세계 언론의 극찬을 받았다. 그리고 10년 후 영화 《콜 미 바이 유어 네임(CALL ME BY YOUR NAME)》으로 재탄생되면서 제90회 미국 아카데미상 각색상 수상을 포함한 최우수 작품상, 남우주연상, 음악상(〈Mystery of Love〉) 부문 노미네이트 외에 세계 유수의 영화제 57관왕, 193개 부문에 노미네이트되며 다시 한번 신드롬을 일으켰다.
-위대한 사랑 이야기. 이 아름다운 소설의 모든 구절, 아픔, 어지러이 밀려오는 감정은 마음속에서 진실로 울려 퍼진다.
--마이클 업처치, 《시애틀 타임스》</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>부서진 대지 3부작 세트</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>N. K. 제미신</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;부서진 대지 3부작 세트&gt; 60여 년 역사의 휴고 상 최초, 3년 연속 최우수 장편상 수상
-인류의 뿌리 깊은 차별의 역사를 은유한 혁명적인 판타지 3부작
-세계 최고 권위의 SF 문학상인 휴고 상을 3년 연속으로 수상한 「부서진 대지」 3부작의 첫 번째 작품 『다섯 번째 계절』이 출간되었다. 2016년,『다섯 번째 계절』로 아프리카계 미국인 작가로서는 처음으로 휴고 상 최우수 장편상을 수상한 N. K. 제미신은 다음 두 해까지 연이어 수상에 성공하는데, 이는 1953년 휴고 상이 시작된 이래 최초의 기록으로, 오랫동안 백인 남성 작가가 주류를 이루던 이 장르에 부는 변화를 보여 주는 사건이다. 지질학적 개념을 차용한 독특한 세계관과 설정을 바탕으로 한 「부서진 대지」는 강력한 능력을 지녔지만 사회적으로 핍박당하는 종족인 ‘오로진’의 여성이 펼치는 모험과 투쟁 속에 인종 차별과 문화적 충돌이란 주제를 정교하게 담아 내며 독자와 평단의 열렬한 반응을 얻었다. 현재 전 세계 20여 개국에 판권이 판매되었으며, 미국 TNT 채널에서 드라마화도 준비 중이다. 후속작인 『오벨리스크 관문(가제)』과 『돌빛 하늘(가제)』은 2019년 하반기와 2020년 상반기에 순차적으로 출간될 예정이다.
-재앙의 계절이 닥친 대륙,
-대지를 움직일 힘을 지닌 세 여자의 삶이 교차하는 순간
-모든 것이 산산이 부서진다!
-겨울, 봄, 여름, 가을. 다섯 번째 계절은 죽음이자 모든 계절의 군주다._본문 중에서
-「부서진 대지」의 무대는 대지모신과 정반대되는 ‘아버지 대지’란 개념이 지배하는 혹독한 세계, 그 안에서도 ‘고요’라는 이름으로 불리는 거대한 초대륙이다. 이곳에는 최소 반년, 길게는 수 세대가 지나도록 지진 활동이나 다른 대규모 환경 변화가 지속적으로 일어나는 재해의 시기인 ‘다섯 번째 계절’이 있다. 인류 중에는 ‘오로진’이라는 소수의 부류가 존재하는데, 이들은 지진 활동과 관련된 에너지를 조종하는 특수 능력인 조산력(造山力, Orogeny)을 지닌 채 태어난다. 그러나 대다수의 인간들은 거대한 능력이 있으나 때로 이 힘을 통제하지 못하는 오로진을 ‘로가’라는 멸칭으로 부르며 적대시하고 두려워하며, 심지어는 오로진으로 발각되는 어린아이를 살해하기도 한다. 그런 한편 대륙 중심지에는 어린 오로진을 모아 가혹한 훈련을 시키며 순종적으로 길들인 후 철저하게 관리하며 착취하는 기관 펄크럼이 있다.
-『다섯 번째 계절』은 능력을 숨기고 작은 마을에서 평범하게 살아가다가 자식을 잃고 만 에쑨, 부모에게서 버림받고 낯선 이의 손에 이끌려 새로운 인생을 시작하게 된 다마야, 펄크럼의 의무에 속박된 채 임무를 수행하러 나선 시에나이트, 이 세 오로진 여성의 시점을 넘나들며 진행된다. 가혹한 운명에 따라 모험을 떠나게 되는 세 인물의 관계가 차츰 밝혀질수록, 억겁의 세월 동안 오로진이 차별과 멸시를 당하게 된 근원과 대륙에 닥친 계절의 비밀 역시 실체를 드러낸다.
-SF․판타지의 새로운 황금기를 여는 작가, N. K. 제미신</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>리틀 라이프 1</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>한야 야나기하라</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;리틀 라이프 1&gt; “상상조차 할 수 없는 인생이지만 
-그것도 인생이라고 말해주길” 
-전 세계 독자를 사로잡은 한 남자의 삶 
-2015 맨부커상 · 전미도서상 최종후보작
-커커스 문학상 수상작 
-뉴욕타임스· 워싱턴포스트 · 월스트리트저널 · NPR · 가디언 · 이코노미스트 
-외 25개 언론사 선정 ‘올해의 책’ 
-천 페이지를 압도하는 폭풍 같은 서사 
-2015년 맨부커상 최고의 화제작
-이 소설을 소개하는 가장 좋은 방법은, 너무나 흔한 관용구대로 “결코 손에서 놓을 수 없다”고 말하는 것이다. 독자를 두렵고 불편하게 하면서도 사로잡는 소설을 묘사할 더 적절한 표현은 없다. _커커스 문학상 선정단 
-영미권을 대표하는 문학상 맨부커상과 전미도서상 최종후보에 나란히 오르고, ＜뉴욕타임스＞ ＜워싱턴포스트＞ ＜가디언＞ ＜월스트리트저널＞을 비롯한 25개 언론사에서 ‘올해의 책’으로 꼽은 화제작 《리틀 라이프》가 한국어판으로 출간되었다. 영국과 미국의 대표 문학상 후보에 선정되기 전부터 독자들 사이에서는 “밤을 새워 읽었다” “천 페이지가 더 길었으면 하는 소설은 처음이다” “눈물이 나 몇 번을 읽다 멈춰야 했다” “충격적이고 가슴 아프다” “읽는 내내 매일 밤 이 소설에 관한 꿈을 꿨다” 같은 리뷰와 함께 이미 입소문이 퍼진 작품으로, 맨부커상 후보작으로 선정된 후 이례적으로 홈페이지에 응원 댓글이 달리며 독자들의 열렬한 지지를 받았다. 어린 시절 끔찍한 학대와 폭력의 트라우마를 간직한 비밀스러운 인물 주드의 이야기를 담은 《리틀 라이프》는 또한 그 소재의 선정성과 가차 없음으로 심사위원들 사이에서 가장 논쟁적인 작품이 되기도 했다. 
-현대 소설로는 드물게 요약본과 해설서가 등장하고, 서평 사이트 ‘굿리즈’에 4만 명이 넘는 독자들이 별점 4점 이상의 평점을 남기고 있으며, 영화 ＜캐롤＞의 배우 루니 마라가 추천 도서로 꼽는 등, 출간된 지 일 년이 넘은 지금도 여전히 독자들의 가슴에 큰 반향을 일으키고 있다. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>시녀 이야기 세트(전 2권)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>마거릿 애트우드</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;시녀 이야기 세트(전 2권)&gt; 시대를 뛰어넘는 고전 걸작 '시녀 이야기'의 처음과 마지막, 
-그 모든 이야기를 한 번에 만나다! 
-1985년 출간 이후 디스토피아 소설의 교본으로 꼽히는 『시녀 이야기』의 후속 신작 『증언들』 출간을 기념해, 시녀 이야기 전자책 세트를 새롭게 선보인다. 
-가상의 미국 정권을 무대로 성과 권력의 어두운 관계를 적나라하게 드러낸 스테디셀러이자, 2017년 전 세계적인 인기를 모은 드라마 「핸드메이즈 테일」의 영향으로 미투 운동뿐 아니라 도널드 트럼프 대통령에 대한 반대 운동의 상징이 된 『시녀 이야기』를 필두로, 그로부터 15년 뒤의 이야기를 그리고 있는 후속 신작 『증언들』을 할인가로 한데 구성하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>대지</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>펄 벅</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;대지&gt; 중국 농민의 운명을 그린 웅혼한 일대서사시 
@@ -1238,8 +1119,114 @@
 순종의 여인 오란을 아내로 맞이하고, 몰락한 지주 황부자집 토지를 사들이며 풍족한 삶을 살게 되지만, 하늘이 내려준 토지의 풍요로움도 잠시뿐, 곧 엄청난 메뚜기떼가 대지를 휩쓰는 가뭄으로 일가족은 생사의 고비에 놓인다. 왕룽은 가족을 데리고 남쪽 도시로 몸을 피한다. 그곳에서 구걸과 막노동의 고된 세월을 보내지만, 고향에 두고 온 자신의 논밭을 떠올리며 언젠가 돌아갈 희망의 끈을 놓지 않는다. 
 ‘대지는 남쪽 도시에서 돌아왔을 때 그의 마음의 병을 고쳐 주었다. 태양은 머리 위에 빛나며 그의 괴로움을 잊게 했고, 여름의 더운 바람은 부드럽게 그를 감싸 주었다.’ 
 토지는 왕룽에게 행운을 가져다주어, 그는 많은 땅을 가진 대지주가 된다. 세월이 흐른 뒤 늙고 병든 왕룽은 자리에 누워, 자식들이 땅을 팔기 위해 의논하는 소리를 듣고 이렇게 띄엄띄엄 말한다. “땅을 팔기 시작하면, 집안은 끝장이야.” “우리는 땅에서 태어났어. 그리고 다시 땅으로 돌아가야만 한다. 땅을 갖고 있으면 살아갈 수 있다. 땅은 누구에게도 뺏겨서는 안된다…….” “만일 땅을 파는 날, 그것은 세상의 마지막이다.” 
-〈대지〉에는 여러 유형의 여성이 등장한다. 오란은 대지주인 황부자집 계집종이었으나 팔려서 왕룽의 아내가 된다. 말수는 적으나 지혜가 있다. 남편을 만나 굶주림과 갖은 고생을 견뎌내고, 나이가 들어 외모가 볼품없다고 남편에게 부당한 대접을 받는 수모를 겪으면서도, 불평 한 마디 하지 않고 묵묵히 눈물을 삼키며 인종(
-?F)의 세월을 보낸다. 오란은 착한 성품과 인내를 미덕으로 아는 중국 여인의 모습을 여실히 보여준다. </t>
+〈대지〉에는 여러 유형의 여성이 등장한다. 오란은 대지주인 황부자집 계집종이었으나 팔려서 왕룽의 아내가 된다. 말수는 적으나 지혜가 있다. 남편을 만나 굶주림과 갖은 고생을 견뎌내고, 나이가 들어 외모가 볼품없다고 남편에게 부당한 대접을 받는 수모를 겪으면서도, 불평 한 마디 하지 않고 묵묵히 눈물을 삼키며 인종(</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x712 at 0x1235992E0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>중요한 건 살인</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;중요한 건 살인&gt; 
+『맥파이 살인 사건』 앤서니 호로위츠가 다시 선보이는 정통 미스터리
+ 해고당한 전직 형사와 어리바리 소설가의 살인 사건 수사기!
+전 세계 2천만 부 이상의 판매고를 올린 영국 최고의 소설가 앤서니 호로위츠가 추리 소설 『중요한 건 살인』으로 돌아왔다. &lt;탐정 소설의 황금기를 떠올리게 한다&gt;는 평을 받을 만큼, 정통 미스터리의 묘미를 한껏 즐길 수 있는 수 있는 작품이다. 이번 소설에서는 독특하게도 호로위츠 본인이 소설 속 인물로 등장해 재미를 더한다.
+사건은 혼자 살던 부유한 노인이 커튼 끈에 목이 졸려 살해당하면서 시작된다. 기묘하게도 노인은 바로 여섯 시간 전에 장의업체에서 자신의 장례식을 준비해 둔 터다. 유능하지만 괴팍한 전직 형사 호손은 호로위츠에게 이 사건을 내용으로 자신이 주인공인 탐정 소설을 써달라고 부탁하고, 호로위츠는 소설 집필을 위해 수사에 동행했다가 살인 사건에 휘말리게 된다. 
+스릴 넘치는 사건, 비밀이 숨겨진 갖가지 증거 그리고 어딘가 수상한 인물들……. 호손과 호로위츠는 무사히 범인을 찾고 탐정 소설도 출간할 수 있을까?</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x705 at 0x1421A3550&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>부서진 대지 3부작 세트</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;부서진 대지 3부작 세트&gt; 60여 년 역사의 휴고 상 최초, 3년 연속 최우수 장편상 수상
+인류의 뿌리 깊은 차별의 역사를 은유한 혁명적인 판타지 3부작
+세계 최고 권위의 SF 문학상인 휴고 상을 3년 연속으로 수상한 「부서진 대지」 3부작의 첫 번째 작품 『다섯 번째 계절』이 출간되었다. 2016년,『다섯 번째 계절』로 아프리카계 미국인 작가로서는 처음으로 휴고 상 최우수 장편상을 수상한 N. K. 제미신은 다음 두 해까지 연이어 수상에 성공하는데, 이는 1953년 휴고 상이 시작된 이래 최초의 기록으로, 오랫동안 백인 남성 작가가 주류를 이루던 이 장르에 부는 변화를 보여 주는 사건이다. 지질학적 개념을 차용한 독특한 세계관과 설정을 바탕으로 한 「부서진 대지」는 강력한 능력을 지녔지만 사회적으로 핍박당하는 종족인 ‘오로진’의 여성이 펼치는 모험과 투쟁 속에 인종 차별과 문화적 충돌이란 주제를 정교하게 담아 내며 독자와 평단의 열렬한 반응을 얻었다. 현재 전 세계 20여 개국에 판권이 판매되었으며, 미국 TNT 채널에서 드라마화도 준비 중이다. 후속작인 『오벨리스크 관문(가제)』과 『돌빛 하늘(가제)』은 2019년 하반기와 2020년 상반기에 순차적으로 출간될 예정이다.
+재앙의 계절이 닥친 대륙,
+대지를 움직일 힘을 지닌 세 여자의 삶이 교차하는 순간
+모든 것이 산산이 부서진다!
+겨울, 봄, 여름, 가을. 다섯 번째 계절은 죽음이자 모든 계절의 군주다._본문 중에서
+「부서진 대지」의 무대는 대지모신과 정반대되는 ‘아버지 대지’란 개념이 지배하는 혹독한 세계, 그 안에서도 ‘고요’라는 이름으로 불리는 거대한 초대륙이다. 이곳에는 최소 반년, 길게는 수 세대가 지나도록 지진 활동이나 다른 대규모 환경 변화가 지속적으로 일어나는 재해의 시기인 ‘다섯 번째 계절’이 있다. 인류 중에는 ‘오로진’이라는 소수의 부류가 존재하는데, 이들은 지진 활동과 관련된 에너지를 조종하는 특수 능력인 조산력(造山力, Orogeny)을 지닌 채 태어난다. 그러나 대다수의 인간들은 거대한 능력이 있으나 때로 이 힘을 통제하지 못하는 오로진을 ‘로가’라는 멸칭으로 부르며 적대시하고 두려워하며, 심지어는 오로진으로 발각되는 어린아이를 살해하기도 한다. 그런 한편 대륙 중심지에는 어린 오로진을 모아 가혹한 훈련을 시키며 순종적으로 길들인 후 철저하게 관리하며 착취하는 기관 펄크럼이 있다.
+『다섯 번째 계절』은 능력을 숨기고 작은 마을에서 평범하게 살아가다가 자식을 잃고 만 에쑨, 부모에게서 버림받고 낯선 이의 손에 이끌려 새로운 인생을 시작하게 된 다마야, 펄크럼의 의무에 속박된 채 임무를 수행하러 나선 시에나이트, 이 세 오로진 여성의 시점을 넘나들며 진행된다. 가혹한 운명에 따라 모험을 떠나게 되는 세 인물의 관계가 차츰 밝혀질수록, 억겁의 세월 동안 오로진이 차별과 멸시를 당하게 된 근원과 대륙에 닥친 계절의 비밀 역시 실체를 드러낸다.
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x720 at 0x14080ACD0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>시녀 이야기 세트(전 2권)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;시녀 이야기 세트(전 2권)&gt; 시대를 뛰어넘는 고전 걸작 '시녀 이야기'의 처음과 마지막, 
+그 모든 이야기를 한 번에 만나다! 
+1985년 출간 이후 디스토피아 소설의 교본으로 꼽히는 『시녀 이야기』의 후속 신작 『증언들』 출간을 기념해, 시녀 이야기 전자책 세트를 새롭게 선보인다. 
+가상의 미국 정권을 무대로 성과 권력의 어두운 관계를 적나라하게 드러낸 스테디셀러이자, 2017년 전 세계적인 인기를 모은 드라마 「핸드메이즈 테일」의 영향으로 미투 운동뿐 아니라 도널드 트럼프 대통령에 대한 반대 운동의 상징이 된 『시녀 이야기』를 필두로, 그로부터 15년 뒤의 이야기를 그리고 있는 후속 신작 『증언들』을 할인가로 한데 구성하였다.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x720 at 0x140B31040&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>애거서 크리스티 전집 세트 A (1~10)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;애거서 크리스티 전집 세트 A (1~10)&gt; 추리의 여왕 애거서 크리스티의 유작. 크리스티가 죽은지 21년이 지난 1997년에야 비로소 발굴된 미간행 작품 일곱 편과 푸아로가 등장하는 단편 두 편의 초고가 수록되어 있다. 트리스티의 첫 작품인 &lt;꿈의 집&gt;이 포함된 이 초기 작품집은 크리스티 작품의 생성 과정을 엿보게 한다. 
+당시의 많은 작가들이 그랬던 것처럼 크리스티 역시 1920년대와 30년대에 걸쳐 여러 잡지에 작품을 썼고, 그 중 대부분의 작품들이 단편집의 형태로 간행되었다. 이 새로운 단편집에 실린 작품들은 범죄 사건에서부터 어두운 연애담, 영적인 소재에 이르기까지 다양한 스타일을 넘나든다. 작품 하나 하나를 차별화하는 거장다운 그녀의 솜씨와 결말에 뜻밖의 반전을 포진해 두는 능력을 새삼 확인할 수 있다. 또한 단편 하나하나마다 수록된 작품에 대한 간단한 해설 및 뒷이야기들은 그동안 미처 몰랐던 크리스티의 인간적인 좌절을 보여준다.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x720 at 0x140067E80&gt;</t>
         </is>
       </c>
     </row>
@@ -1249,15 +1236,56 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>워더링 하이츠</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;워더링 하이츠&gt; 두 개의 저택을 중심으로 펼쳐지는 강렬한 이야기!
+『폭풍의 언덕』이라는 제목으로 잘 알려진 에밀리 브론테의 소설『워더링 하이츠』. 50년 만에 부활한 정통 세계문학 시리즈「을유세계문학전집」의 38번째 책이다. 두 개의 저택, 워더링 하이츠와 스러시크로스 그레인지를 중심으로 이야기가 펼쳐진다. 스러시크로스 그레인지 저택을 전세 낸 록우드는 집주인인 히스클리프를 만나기 위해 워더링 하이츠에 들른다. 그 집에서 하룻밤을 묵게 된 록우드는 캐서린이라는 이름의 여자 유령과 마주치게 된다. 놀라서 자신의 거처로 돌아온 그는 가정부 넬리에게 수수께끼 같은 집주인의 과거 이야기를 듣게 되는데…. 이 작품은 서머싯 몸이 선정한 세계 10대 소설 중 하나로 꼽히기도 했다.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x727 at 0x127820280&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4 3 2 1 (1)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;4 3 2 1 (1)&gt; &lt;나는 바로 이 책을 쓰기 위해 평생을 기다려 온 것만 같다&gt;
+폴 오스터 필생의 역작
+『선셋 파크』 이후 10년 만에 출간되는 장편소설 
+한 편의 대서사시와도 같은 이 성장 소설은 주인공 아치 퍼거슨의 삶을 탄생 전후부터 청년기까지 네 가지 버전으로 세밀하게 그려 내는데, 곳곳에 작가 본인이 살아온 삶이 녹아 있다. 퍼거슨은 네 개의 평행한 삶들 속에서 자신이 선택한 것과 선택하지 않은 것, 선택할 수 없었던 것에 따라 서로 다른 관계와 사건과 우연의 소용돌이를 통과하며 자라난다. 그 과정에서 그가 경험하는 기쁨, 공포, 욕망, 분노, 혼란은 1950~1960년대 미국의 요동치는 정치적, 문화적 흐름에 섞여 들고, 그렇게 퍼거슨의 이야기는 시대와 개인을 아우르는 총체적인 작품을 이룬다.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x727 at 0x127EB92E0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>올리브 키터리지</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>엘리자베스 스트라우트</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;올리브 키터리지&gt; 바닷가 마을 사람들의 일상을 그린 연작소설
@@ -1267,50 +1295,9 @@
 이 책에는 퉁명스럽고 무뚝뚝하며 차갑고 강인한 여인 올리브를 축으로 마을의 다양한 사람이 등장한다. 모두에게 친절하고 상냥한, “대양을 닮은 큰 눈으로” 세상을 바라보는 사람 좋은 남자 헨리(「약국」), 떠나간 옛사랑의 희미한 그림자를 붙들고 살다 오랜만에 해후한 옛 연인을 통해 “자신이 뭔가를 너무 늦게 깨달았다고, 그리고 너무 늦었을 때에야 뭔가를 깨닫는 것이 인생일 거라”는 깨달음을 얻는 앤절라(「피아노 연주자」), 와병 중이던 남편을 잃고 장례식을 치르다 병이 나으면 함께 가자며 남편과 꿈에 부풀어 준비했던 여행 바구니를 보며 자신을 책망하는 말린(「여행 바구니」) 등 저마다 삶이 남긴 생채기를 끌어안고 살아가는 인물들이다.</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>템페스트</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>윌리엄 셰익스피어</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;템페스트&gt; 셰익스피어의 마지막 작품
-외딴섬에서 하루 동안 벌어지는 화해와 용서의 한바탕 인생 찬가
-문학사상 가장 위대한 작가이자 가장 사랑받는 극작가 셰익스피어의 마지막 작품이다. 셰익스피어 연구가로 큰 족적을 남긴 이경석 교수(서울대학교 영문과)가 번역을 맡아 최대한 원전 그대로 접할 수 있도록 변역했다. 『템페스트』는 셰익스피어의 예술적 상상력이 마음껏 드러난, 복수, 사랑, 용서 그리고 마법이 어우러진 인생찬가이다.
-이 작품은 동생에게 속아 공국을 빼았기고 어린 딸과 함께 무인도에 버려진 주인공이 마법의 힘으로 복수의 기회를 잡지만, 결국 사랑의 힘으로 용서와 화해에 이르는 이야기를 그리고 있다. 은퇴를 앞둔 노작가의 세계관을 엿볼 수 있는 『템페스트』는 유한한 삶의 덧없음과 생의 아름다움을 예찬한 만년의 걸작이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>애거서 크리스티 전집 세트 A (1~10)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>애거서 크리스티</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;애거서 크리스티 전집 세트 A (1~10)&gt; 추리의 여왕 애거서 크리스티의 유작. 크리스티가 죽은지 21년이 지난 1997년에야 비로소 발굴된 미간행 작품 일곱 편과 푸아로가 등장하는 단편 두 편의 초고가 수록되어 있다. 트리스티의 첫 작품인 &lt;꿈의 집&gt;이 포함된 이 초기 작품집은 크리스티 작품의 생성 과정을 엿보게 한다. 
-당시의 많은 작가들이 그랬던 것처럼 크리스티 역시 1920년대와 30년대에 걸쳐 여러 잡지에 작품을 썼고, 그 중 대부분의 작품들이 단편집의 형태로 간행되었다. 이 새로운 단편집에 실린 작품들은 범죄 사건에서부터 어두운 연애담, 영적인 소재에 이르기까지 다양한 스타일을 넘나든다. 작품 하나 하나를 차별화하는 거장다운 그녀의 솜씨와 결말에 뜻밖의 반전을 포진해 두는 능력을 새삼 확인할 수 있다. 또한 단편 하나하나마다 수록된 작품에 대한 간단한 해설 및 뒷이야기들은 그동안 미처 몰랐던 크리스티의 인간적인 좌절을 보여준다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x694 at 0x127F33760&gt;</t>
         </is>
       </c>
     </row>
@@ -1325,14 +1312,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>스티븐 킹</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t xml:space="preserve">
 &lt;스켈레톤 크루 (상)&gt; 공포 소설의 거장 스티븐 킹의 두 번째 단편집. 스티븐 킹이 직접 쓴 두 편의 시를 포함하여, 모두 스물두 편의 작품이 두 권에 나뉘어 실렸다. 하권의 말미에는 작가 자신이 각 단편에 대해 짧은 논평을 달아놓았다.
 사회적 관심사를 공포의 주제로 삼아 조명하는 스티븐 킹 특유의 개성이 잘 살아 있는 단편집이다. 종교에 대한 광신이 빚어내는 혼돈, 얌전한 학생이 저지르는 무차별적인 살인, 정부나 군부대의 프로젝트라는 이름으로 비밀리에 이루어지는 실체 모를 실험, 그리고 가족 내 흔들리는 가장의 위상 등이 각 이야기의 주 소재이다. 스티븐 킹은 판타지, 호러, SF, 본격문학 등 다양한 장르를 오가며 대가의 필력을 한껏 발휘한다.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x753 at 0x123578CA0&gt;</t>
         </is>
       </c>
     </row>
@@ -1342,19 +1329,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>디아블로: 죄악의 전쟁 1권</t>
+          <t>미드나잇 선 1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>리차드 A. 나크</t>
+          <t xml:space="preserve">
+&lt;미드나잇 선 1&gt; ★ 로맨스의 상징 벨라와 에드워드가 돌아왔다! ★
+전 세계가 가장 사랑한 베스트셀러 《트와일라잇》 시리즈 신작! 
+전 세계적으로 1억 6천만 부 이상이 팔린 《트와일라잇》 시리즈의 완결, 《미드나잇 선》이 북폴리오에서 출간되었다. 에드워드 컬렌과 벨라 스완이 만난 《트와일라잇》은 출간 직후부터 로맨스 소설의 정석으로 자리매김했다. 하지만 지금까지 독자들은 벨라의 입장에서 이야기를 만났을 뿐이다. 드디어 오랫동안 기다려 온 나머지 이야기, 《미드나잇 선》을 통해 에드워드의 마음을 경험할 차례다!
+에드워드의 시선을 통해 진행되는 《미드나잇 선》의 이야기는 기존 《트와일라잇》 독자들에게는 익숙하면서도 새로운 느낌을 주기에 충분하다. 첫 만남부터 강렬하게 벨라에게 이끌리면서도 그 마음을 외면한 채 벨라를 거부하려는 에드워드. 벨라의 행동 하나하나를 집착하듯 지켜보면서도 벨라를 밀어내려는 에드워드. 그의 고뇌와 벨라를 향한 열정은 페이지 한 장 한 장을 넘기는 독자에게 잊지 못할 강렬함을 선사할 것이다. 
+벨라와의 만남은 에드워드가 뱀파이어로 살아오면서 겪은 일 중 가장 불안하고도 호기심을 자극하는 사건이었다. 매혹적인 에드워드의 과거와 복잡한 속마음을 자세하게 알게 될수록, 어째서 이 사랑이 에드워드의 삶에 본질적인 의미를 주는 고통이 되는지 이해할 수 있다. 자신의 마음을 따르면 결국 벨라가 위험에 빠진다는 걸 알면서도 에드워드는 어떻게 이 사랑을 정당화할 수 있을까?
+십 년 만에 돌아온 스테프니 메이어는 《미드나잇 선》을 통해 수백만 독자들을 사로잡았던 이야기 속 세계로 다시 이끌며 불멸의 사랑이라는 심오한 즐거움과 파괴적인 결과를 그린 서사시를 독자에게 선사한다. 
+도망쳐, 벨라. 난 널 너무 사랑해. 그러니 도망쳐.
+너를 위해서, 나를 위해서.
+아주 잠깐, 석류를 손에 들고 있는 페르세포네가 보였다. 
+석류를 먹어 버려서 스스로를 저승에 갈 운명으로 만들어 버린 그리스 신화 속 여신이.
+그렇다면 나는 누구인가? 바로 하데스다. 
+봄날을 탐내다 못해 훔쳐내고 끝없는 밤의 저주를 내려 버린 자. </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;디아블로: 죄악의 전쟁 1권&gt; 인간과 악마, 그리고 천사의 격돌! 
-블리자드 엔터테인먼트의 베스트셀러 게임 디아블로를 배경으로 한 소설 『디아블로: 죄악의 전쟁』 제1권 천부의 권리 편. 시간이 시작된 이래, 천국의 천사 군대와 지옥의 악마 무리들은 모든 피조물의 운명을 걸고 영원한 분쟁을 벌여왔다. 그 싸움은 인간의 세상으로 번져간다. 인류를 자신들의 편으로 끌어들이려 결심한 선과 악의 세력은 인간들을 얻으려 비밀스러운 전쟁을 펼친다. 인간의 운명을 영원히 바꿔놓을 그 싸움에 대한 이야기가 ‘죄악의 전쟁’이다. 칼과 마법, 시대를 초월한 본쟁을 그린 이 소설은 긴장감 넘치는 스토리 전개와 반전의 짜릿함이 돋보인다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x693 at 0x1408082B0&gt;</t>
         </is>
       </c>
     </row>
@@ -1364,20 +1361,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>스티븐 킹 걸작선 05 - 스티븐킹 단편집 (옥수수 밭의 아이들 외)</t>
+          <t>모비 딕 1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>스티븐 킹</t>
+          <t xml:space="preserve">
+&lt;모비 딕 1&gt; 허먼 멜빌 탄생 200주년 기념! 새 완역으로 만나는 『모비 딕』
+『모비 딕』은 허먼 멜빌이 1851년 여섯번째로 발표한 장편소설로, 친밀히 교유한 문호 너새니얼 호손에게 헌정한 작품이기도 하다. 당시는 멜빌이 모험 작가로서의 인기와 명성을 모두 상실한 때로, 『모비 딕』은 생소한 형식에 신성모독적 서술까지 논란이 되어 평단과 대중의 혹평을 받는다. 멜빌은 사후에 이른바 ‘멜빌 부흥’을 거쳐 재평가되었다. 특히 그의 탄생 100주년을 맞아 레이먼드 위버가 극찬하는 평론을 발표한 것을 계기로 재조명된 『모비 딕』은, 향유고래의 공격으로 난파된 에식스호의 실제 사건에서 영감을 얻어 포경선 피쿼드호의 에이해브 선장과 흰 고래 ‘모비 딕’ 사이의 대결을 거대하고도 웅장한 비극으로 형상화한 멜빌의 대표작이자 미국문학의 걸작으로 손꼽힌다. 2019년 허먼 멜빌 탄생 200주년을 맞아 문학동네 세계문학전집으로 『모비 딕』의 새 완역본을 선보인다. 황유원 시인의 번역으로 멜빌 특유의 장중하고도 극적인 문체를 살렸고, 책의 끝에는 이해를 돕기 위한 그림(포경선 및 포경 보트의 구조)을 부록으로 담았다.
+#허먼 멜빌 탄생 200주년 기념 #백경 #유명한 첫 문장 #영문학 3대 비극  #19세기 미국문학의 3대 작가 #실제 사건을 차용한 소설 #작가의 실제 경험이 반영된 소설</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;스티븐 킹 걸작선 05 - 스티븐킹 단편집 (옥수수 밭의 아이들 외)&gt; 2003년 미국의 권위있는 문학상인 전미도서상(National Book award)에서 '미국 문단에 탁월한 공헌을 한 작가'에게 주는 상을 수상한 스티븐 킹. 그의 대표작들이 말끔한 편집과 새 번역, 단단한 양장본의 모습으로 재출간된다. 이번에 출간된 다섯 권 외에 국내 처음 소개되는 &lt;세일럼스롯&gt;을 포함, &lt;미저리&gt;, &lt;스탠드&gt;, &lt;그린마일&gt;, &lt;잇&gt;이 연달아 출간될 예정.
-스티븐 킹은 인간의 마음 속 깊은 곳에 감춰진 원초적이고 근원적인 공포를 탁월하게 묘사한다는 평을 듣는 작가이다. 가족간의 불화, 집단 따돌림 같이 일상에 자리한 사소한 문제들이 언제라도 생명을 위협할만큼 커다란 위기로 치달을 수 있음을 스피디한 필치로 생생하게 그려낸다.
-이 책에는 '맹글러', '금연 주식회사', '트럭', '부기 맨' 등 스티븐 킹의 대표적 단편 20개가 담겨 있으며, 책 말미에는 김성곤 교수의 해설 '스티븐 킹을 어떻게 읽을 것인가?'가 실려 있다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x718 at 0x1408F33D0&gt;</t>
         </is>
       </c>
     </row>
@@ -1387,23 +1384,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>걸리버 여행기</t>
+          <t>갈매기의 꿈 (완결판)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>조너선 스위프트</t>
+          <t xml:space="preserve">
+&lt;갈매기의 꿈 (완결판)&gt; 1970년에 발표된 이래 전 세계 40여 개의 언어로 번역되어 4,000만 부 이상이 팔린 리처드 바크의 우화소설, 세대를 넘어 수많은 독자들에게 가슴 뭉클한 감동을 안겨준 최고의 베스트셀러 『갈매기의 꿈(Jonathan Livingston Seagull)』이 개정증보판으로 새롭게 번역 출간되었다.
+2003년 시인 류시화의 번역으로 국내에 처음 정식 출간되어 많은 사랑을 받아온 우화소설의 고전이 45년 만에 작가의 미공개 원고를 추가해 베테랑 전문번역가 공경희 씨의 언어로 옷을 갈아입고 완전히 새롭게 태어난 것이다.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;걸리버 여행기&gt; 
-아일랜드 최고 풍자작가의 대표적 풍자소설 
-―아일랜드문학사는 물론 영문학사의 명작이자 기작 
-영국에서 발간되자마자 폭발적인 인기를 누렸던 《걸리버 여행기》에서 저자는 당시 영국의 정치·사회의 타락과 부패를 통렬히 비판했으며, 인류의 어리석음을 철저하게 매도하고 풍자했다. 인간을 하나의 ‘짐승’으로 묘사한다든가 하는 개념은 당시의 사람들에게는 전혀 새롭고 기묘한 것으로서 독자들에게 놀라움과 함께 즐거움을 안겨주었다. 이 책은 활기에 넘치면서도 평이하고 수수한 필법으로 인해서 모든 연령의 사람들에게, 그리고 남녀를 가리지 않고 환영을 받았다. 사람들은 이 책에서 저자가 진정으로 전달하고자 하는 의도가 무엇인지를 알려 했으며 사람들이 모이는 곳마다 단골로 등장하는 화젯거리가 되기도 했다. 이미 익숙한 소인국과 거인국 이야기뿐 아니라 책 전체를 보아야 진짜 알맹이는 맛볼 수 있으며 특히 마지막 〈말의 나라 여행기〉를 읽어야 인간이 본질적으로 자비로운 존재인지 아니면 이기적인 존재인지, 사회적인 동물인지 아니면 좋은 먹이를 찾아다니는 데 여념이 없는 짐승인지, 그 본질에 대한 스위프트의 깊은 상념을 깨닫게 될 것이다. 또한 이 책은 300년 전의 원전 삽화에 “Sea of Corea"라는 표기가 있어 동해가 우리의 고유 영토임을 입증하는 귀중한 자료이며 더불어 독도의 진정한 주인이 대한민국이라는 사실을 강력하게 뒷받침해준다. 
-■《걸리버 여행기》 완역판 줄거리 
-주인공 걸리버는 차례로 소인국, 거인국, 하늘을 나는 섬, 영생인이 사는 나라, 말의 나라 등에 표류하여 색다른 경험을 한다. 릴리푸트라는 소인국에서 거인 취급을 받던 걸리버는 브로브딩낙이라는 거인국에서는 손가락만 한 소인의 입장이 되어 크기는 결국 ‘비교의 문제’임을 깨닫는다. 또 하늘을 나는 섬과 발니바비 국의 수도 라가도 등을 방문하여, 늘 깊은 사색에 잠긴 사람들과 불필요해보이는 연구에 종사하는 학자들, 죽은 자와 과거의 장면을 현실에 불러올 수 있는 마법사들을 만난다. 말의 나라에는 인간의 모습을 한 추악하고 어리석은 동물 야후와 존경스러운 품격과 예의를 갖춘 말의 모양 동물 후이늠을 만난다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x651 at 0x127E37370&gt;</t>
         </is>
       </c>
     </row>
@@ -1413,20 +1406,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>스티븐 킹 걸작선 02 - 샤이닝(상)</t>
+          <t>디아블로: 죄악의 전쟁 1권</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>스티븐 킹</t>
+          <t xml:space="preserve">
+&lt;디아블로: 죄악의 전쟁 1권&gt; 인간과 악마, 그리고 천사의 격돌! 
+블리자드 엔터테인먼트의 베스트셀러 게임 디아블로를 배경으로 한 소설 『디아블로: 죄악의 전쟁』 제1권 천부의 권리 편. 시간이 시작된 이래, 천국의 천사 군대와 지옥의 악마 무리들은 모든 피조물의 운명을 걸고 영원한 분쟁을 벌여왔다. 그 싸움은 인간의 세상으로 번져간다. 인류를 자신들의 편으로 끌어들이려 결심한 선과 악의 세력은 인간들을 얻으려 비밀스러운 전쟁을 펼친다. 인간의 운명을 영원히 바꿔놓을 그 싸움에 대한 이야기가 ‘죄악의 전쟁’이다. 칼과 마법, 시대를 초월한 본쟁을 그린 이 소설은 긴장감 넘치는 스토리 전개와 반전의 짜릿함이 돋보인다.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;스티븐 킹 걸작선 02 - 샤이닝(상)&gt; 스티븐 킹이 쓴 40편의 장편 소설은 35개국에서 33개 언어로 번역되었으며, 70여개의 영화와 텔레비전 시리즈로 제작되었다. 그는 공포소설의 외피를 빌려, 삶과 죽음, 사랑과 집착, 도전과 좌절, 신과 인간 등 인간의 본질적 문제에까지 파고드는 훌륭한 작가이다.
-2003년 미국의 권위있는 문학상인 전미도서상(National Book award)에서 '미국 문단에 탁월한 공헌을 한 작가'에게 주는 상을 수상한 스티븐 킹. 그의 대표작들이 말끔한 편집과 새 번역, 단단한 양장본의 모습으로 재출간된다.
-영화포스터(부서진 문 사이로 보이는 잭 니콜슨의 기괴한 얼굴 표정)가 썩 인상적인 '샤이닝'은 한 호텔에 겨울철 관리인으로 들어간 평범한 교사 가족에게 벌어지는 이야기이다. 소설을 쓰면서 점점 미쳐가는 주인공의 심리를 예리하고 밀도 깊게 그려나간다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x727 at 0x1409C7F10&gt;</t>
         </is>
       </c>
     </row>
@@ -1436,19 +1428,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>스티븐 킹 걸작선 1 - 캐리</t>
+          <t>어딘가 상상도 못 할 곳에, 수많은 순록 떼가</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>스티븐 킹</t>
+          <t xml:space="preserve">
+&lt;어딘가 상상도 못 할 곳에, 수많은 순록 떼가&gt; 
+『종이 동물원』의 작가 켄 리우의 한국판 오리지널 SF 단편선
+데뷔작을 포함하여 함께 엮인 적 없는 단편 중 12편을 선별하여 수록
+동시대 가장 주목받는 SF 환상문학 작가 켄 리우의 두 번째 단편 선집이 황금가지에서 출간되었다. 권위의 휴고 상, 네뷸러 상, 세계환상문학상을 40년만에 첫 동시 수상한 대표작 「종이 동물원」으로 국내에서도 많은 독자를 확보한 켄 리우의 미출간 단편 중 엄선하여 엮은 한국판 단편집이다. 『종이 동물원』으로 제13회 유영 번역상을 수상한 장성주 씨가 엮고, 저자 켄 리우가 한국 독자에게 보내는 머리말을 따로 수록하였다. 켄 리우의 데뷔작인 「카르타고의 장미」를 필두로, 스페인 권위의 상 이그노투스 상 수상작 「사랑의 알고리즘」, 한글에서 영감을 얻은 「매듭 묶기」, 저자가 특별히 아끼는 시리즈인 '싱귤래리티 3부작' 등 총 12편의 작품으로 구성되었다. 작품들은 모두 시간과 공간, 차원을 초월한 형태의 다양한 가족들을 소재로 하고 있다는 공통점을 갖고 있으며, 각기 죽음과 영생, 인종과 문화의 충돌 등 동시대 현대인들이 가진 여러 관심사를 흥미롭게 담아내고 있다. 켄 리우의 한국판 단편집은 두 권이 더 준비 중이며, 『신들은 죽임당하지 않을 것이다』와 『은낭전』이 내년 출간될 예정이다. 
+""제가 쓴 책을 펼쳐 주신 한국의 모든 독자 여러분, 감사합니다. 이처럼 시간과 공간, 언어, 문화를 넘어 쓰는 이와 읽는 이가 대화를 나눌 때 우리는 비로소 가장 인간다워진다고, 저는 느낍니다. 우리는 이야기를 짓는 종(種)이니까요."" -저자 머리말 중
+지난날의 지혜가 설득력을 잃은 시대에 인간으로 산다는 건 무엇인가?
+표제작이 포함된 '싱귤래리티 3부작'은 인간의 정신을 데이터 세계로 보내고 육신을 버리게 된 인류의 변모 과정을 풍부한 저자의 상상력을 담아 그리고 있다. 이 '싱귤래리티'로 구현된 세계에서의 디지털 인류는 영생은 물론이고, 육신의 삶에선 상상도 할 수 없는 생활과 가족 관계를 형성함으로써, 독자들에게 새로운 미래 세계를 펼쳐보인다. 인간의 탄생에서부터 죽음까지를 하나의 포물선으로 묘사하는 첫 작품 「호」 역시 열여섯 살에 미혼모가 된 주인공이 영원한 젊음과 영생을 선택할 수 있게 된 과정을 그리고 있다. 저자인 켄 리우가 머리말을 통해 ""지난날의 지혜가 설득력을 잃은 것처럼 느껴지는 시대에 인간으로 산다는 것은 무엇을 의미하는가?""라는 질문을 던진다. 전기, 인터넷, 스마트폰처럼 세상을 뒤바꿀 혁신적인 변화의 순간마다 갖가지 선택에 직면하게 되었던 개인의 모습을 투영함과 동시에, 그 안에서 그간 지켜왔던 전통과 정체성, 문화, 가족, 사랑 같은 것들의 가치는 어떻게 바뀌어 왔고 또 앞으로 새로운 변화의 순간마다 어떻게 변화할 것인지, 켄 리우는 독자들에게 흥미로운 생각거리를 던져준다.
+""맏아들을 낳았을 때 레나 오젠은 열여섯 살이었다. 그로부터 100년 후, 오젠의 막내딸이 태어났다."" -본문 중
+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;스티븐 킹 걸작선 1 - 캐리&gt; 2003년 미국의 권위있는 문학상인 전미도서상(National Book award)에서 '미국 문단에 탁월한 공헌을 한 작가'에게 주는 상을 수상한 스티븐 킹. 스티븐 킹은 인간의 마음 속 깊은 곳에 감춰진 원초적이고 근원적인 공포를 탁월하게 묘사한다는 평을 듣는 작가이다. 가족간의 불화, 집단 따돌림 같이 일상에 자리한 사소한 문제들이 언제라도 생명을 위협할만큼 커다란 위기로 치달을 수 있음을 스피디한 필치로 생생하게 그려낸다.
-브라이언 드 팔마 감독의 영화로 더 유명한 &lt;캐리&gt;는 염력을 지닌 소녀 캐리가 샤워실에서 첫 월경을 하는 충격적인 장면으로 시작한다. 광신도 어머니 밑에서 학대당하며 자란 캐리는 아이들의 집단 따돌림과 엄마의 광기로 인해, 마침내 끔찍한 사건의 중심이 되고 만다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x717 at 0x140B3A2E0&gt;</t>
         </is>
       </c>
     </row>
@@ -1458,29 +1457,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>애거서 크리스티 에디터스 초이스 세트</t>
+          <t>스티븐 킹 걸작선 1 - 캐리</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>애거서 크리스티</t>
+          <t xml:space="preserve">
+&lt;스티븐 킹 걸작선 1 - 캐리&gt; 2003년 미국의 권위있는 문학상인 전미도서상(National Book award)에서 '미국 문단에 탁월한 공헌을 한 작가'에게 주는 상을 수상한 스티븐 킹. 스티븐 킹은 인간의 마음 속 깊은 곳에 감춰진 원초적이고 근원적인 공포를 탁월하게 묘사한다는 평을 듣는 작가이다. 가족간의 불화, 집단 따돌림 같이 일상에 자리한 사소한 문제들이 언제라도 생명을 위협할만큼 커다란 위기로 치달을 수 있음을 스피디한 필치로 생생하게 그려낸다.
+브라이언 드 팔마 감독의 영화로 더 유명한 &lt;캐리&gt;는 염력을 지닌 소녀 캐리가 샤워실에서 첫 월경을 하는 충격적인 장면으로 시작한다. 광신도 어머니 밑에서 학대당하며 자란 캐리는 아이들의 집단 따돌림과 엄마의 광기로 인해, 마침내 끔찍한 사건의 중심이 되고 만다.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;애거서 크리스티 에디터스 초이스 세트&gt; 애거서 크리스티의 작품들 중 최고의 작품들만을 엄선한 '애거서 크리스티 에디터스 초이스' 시리즈. 기네스 기록에 따르면, 애거서 크리스티는 말 그대로 시대를 풍미한 베스트셀러 작가이다. 애거서 크리스티는 100권이 넘는 장편 소설과 단편집과 희곡을 썼으며, 그녀의 작품들은 100개가 넘는 언어로 번역되어 전 세계적으로 거의 40억 부가 넘게 팔려 나갔다.
-애거서 크리스티 에디터스 초이스는 「가디언」에서 선정한 애거서 크리스티 베스트 10 목록 및 전 세계적인 애거서 크리스티의 판매고와 애거서 크리스티 본인이 직접 뽑은 자신이 가장 좋아하는 작품 목록 등을 고려하여, 그녀의 작품들 중에서도 인기와 명성이 높은 작품들을 골라 선정하였다. 시리즈를 10권으로 제한하여 총 77권인 그녀의 전집에 비해 독자들의 접근성을 높였으며 새로이 현대적인 디자인을 입혔다.
-1권 : 그리고 아무도 없었다
-2권 : 오리엔트 특급 살인
-3권 : 0시를 향하여
-4권 : 애크로이드 살인 사건
-5권 : 살인을 예고합니다
-6권 : 비뚤어진 집
-7권 : 나일 강의 죽음
-8권 : 서재의 시체
-9권 : 다섯 마리 아기 돼지
-10권 : ABC 살인 사건</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x681 at 0x1400A1460&gt;</t>
         </is>
       </c>
     </row>
@@ -1490,23 +1479,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>맛</t>
+          <t>월드 오브 사이버펑크 2077 : 공식 설정집</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>로알드 달</t>
+          <t xml:space="preserve">
+&lt;월드 오브 사이버펑크 2077 : 공식 설정집&gt; 
+[위쳐] 제작사의 새로운 블록버스터 게임,
+[사이버펑크 2077]의 모든 것!
+세계적인 개발사 CD PROJEKT RED의 대작 게임 [사이버펑크 2077] 속 설정을 총망라한 풀-컬러 하드커버 설정집이자 아트북이다. 위협과 모험으로 가득한 게임의 무대, 미래의 거대 도시 '나이트 시티'로 안내할 이 책은 게임에 관한 완벽한 정보와 즐길 거리를 제공한다. 개성 넘치는 도시 내 다양한 구역과 갱단, 신체 개조 테크놀러지, 총기, 차량, 기업, 인물, 가상 인터뷰 등이 화려한 독점 일러스트와 함께 풍부하게 수록되어 있다. 더불어 책 내용은 '나이트 시티 인콰이어러'라는 게임 속 가상의 언론사가 작성했다는 콘셉트로 꾸며져, 딱딱한 내용의 단순 나열이 아닌 흥미로운 스토리텔링을 통해 읽을 수 있다. 폭력과 억압이 롤러코스터처럼 펼쳐질 [사이버펑크 2077]과 함께 반드시 함께 즐겨야 할 단 한 권의 도서이다.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;맛&gt; 에드거 엘런 포 상, 전미 미스터리 작가상 수상에 빛나는 최고의 이야기꾼
-시끄럽고 대담하고 뻔뻔스러운 이야기 저 너머에서
-빙그레 웃으며 기어이 독자와의 내기에서 이기고 마는 작가
-우리 시대의 가장 영향력 있고 가장 널리 읽히는 작가 _타임스
-세대를 뛰어넘는 영원한 이야기꾼 로알드 달의 베스트 소설집
-‘에드거 엘런 포’ 상, 전미 미스터리 작가상 수상에 빛나는 최고의 이야기꾼 로알드 달의 베스트 소설집이 재출간되었다. 올해로 서거 30주년을 맞은 로알드 달은 2000년 ‘세계 책의 날’에 전 세계 사람들이 가장 사랑하는 작가로 선정되었고 시간이 지날수록 세대를 뛰어넘는 영원한 이야기꾼으로 자리매김하고 있다. 모두 3권으로 출간되는 “로알드 달 소설”은 그의 베스트셀러 『응답 바람Over to You』 『당신을 닮은 사람Someone Like You』 『키스 키스Kiss Kiss』 『스위치 비치Switch Bitch』에서 엄선해 묶은 스물다섯 편의 이야기는 기괴하면서도 중독성 있는 로알드 달의 소설 세계를 가장 잘 보여주는 작품들이다. 전 세계 어린이들의 사랑을 받으며 영화로도 제작된 『찰리와 초콜릿 공장』 『마틸다』와 같은 동화에서 로알드 달이 보여준 기묘하고 비범한 인물과 예측 불가능한 전개는 그의 단편소설에서 본격적으로 빛을 발한다. 도박과 내기에 대한 집착, 속고 속이는 의뭉스러운 술수, 통념 밖의 기이한 목표를 향해 놀라운 집념을 발휘하는 인물 등을 통해 인간사의 미묘한 국면을 밀도 높게 몰아붙이는 그의 솜씨는 결말에서 으스스한 반전과 다층적인 유머를 선사하면서 정점에 달한다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x639 at 0x127EB9C40&gt;</t>
         </is>
       </c>
     </row>
@@ -1516,19 +1503,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>갈매기의 꿈 (완결판)</t>
+          <t>로미오와 줄리엣</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>리처드 바크</t>
+          <t xml:space="preserve">
+&lt;로미오와 줄리엣&gt; 달빛 아래 주고받은 첫 키스와 사랑의 맹세, 살아 있는 죽음을 통해 도달하는 죽음을 넘어서는 사랑!
+셰익스피어가 빚어낸 순수한 열정의 비극, 그 사랑의 모순어법 
+셰익스피어의 대표적인 비극 『로미오와 줄리엣』은 집안 간의 반목으로 인해 비극적인 결말을 맞는 연인의 사랑을 그린 희곡이며, 그 극적인 구성과 아름다운 표현으로 청년 극작가였던 셰익스피어에게 커다란 명성을 가져다주었다. 또한 1597년 처음 출간된 이후, 『햄릿』과 함께 가장 많이 연극 무대에 오르는 셰익스피어의 작품으로 알려져 있다. 연극 외에도 음악, 미술, 영화, 뮤지컬, 오페라, 발레 등 다양한 형태로 공연되어 왔으며 ‘로미오와 줄리엣’은 운명적인 사랑에 빠진 연인의 대명사가 되었다. 민음사에서 출간한 『로미오와 줄리엣』은 기존에 번역된 ‘셰익스피어 4대 희극’과 『한여름 밤의 꿈』과 마찬가지로 연세대 최종철 교수가 셰익스피어의 원문에 충실하게 운문으로 번역하여 그 의미가 한층 더 깊다고 할 수 있다.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;갈매기의 꿈 (완결판)&gt; 1970년에 발표된 이래 전 세계 40여 개의 언어로 번역되어 4,000만 부 이상이 팔린 리처드 바크의 우화소설, 세대를 넘어 수많은 독자들에게 가슴 뭉클한 감동을 안겨준 최고의 베스트셀러 『갈매기의 꿈(Jonathan Livingston Seagull)』이 개정증보판으로 새롭게 번역 출간되었다.
-2003년 시인 류시화의 번역으로 국내에 처음 정식 출간되어 많은 사랑을 받아온 우화소설의 고전이 45년 만에 작가의 미공개 원고를 추가해 베테랑 전문번역가 공경희 씨의 언어로 옷을 갈아입고 완전히 새롭게 태어난 것이다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x711 at 0x140B3EFA0&gt;</t>
         </is>
       </c>
     </row>
@@ -1538,20 +1526,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>로미오와 줄리엣</t>
+          <t>폭풍의 언덕</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>윌리엄 셰익스피어</t>
+          <t xml:space="preserve">
+&lt;폭풍의 언덕&gt; 복수심이 휘몰아치는 황야의 한복판……
+단 하나의 소설로 위대한 작가가 된 에밀리 브론테의 걸작
+단 하나의 소설로 문학사에 자신의 이름을 아로새긴 에밀리 브론테의 불멸의 걸작. 캐서린을 향한 히스클리프의 빗나간 사랑과 광기 어린 복수는, 그러나 그 비극의 이면으로 찾아올 무한한 평화의 순간을 귀중하게 감추고 있다. 행간을 박차고 나와 날카로운 음색으로 귓속을 긁어대는 인물들의 아우성을 인내심 있게 듣다보면, 1801년 ‘워더링 하이츠’의 문을 여는 에밀리 브론테와 비로소 마주할 수 있다. 출간 당시 비도덕적이고 야만적이라는 이유로 비판받았던 작품은 반세기가 지나 서머싯 몸, 버지니아 울프 등의 극찬을 받으며 작품의 가치를 인정받았고, 현재는 누구도 부정할 수 없는 세계적인 명작으로 자리 잡았다. 국내 처음으로 에밀리의 언니이자 《제인 에어》의 작가이며 1850년판 《폭풍의 언덕》의 편집자이기도 한 샬럿 브론테의 ‘서문’을 실었다.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;로미오와 줄리엣&gt; 달빛 아래 주고받은 첫 키스와 사랑의 맹세, 살아 있는 죽음을 통해 도달하는 죽음을 넘어서는 사랑!
-셰익스피어가 빚어낸 순수한 열정의 비극, 그 사랑의 모순어법 
-셰익스피어의 대표적인 비극 『로미오와 줄리엣』은 집안 간의 반목으로 인해 비극적인 결말을 맞는 연인의 사랑을 그린 희곡이며, 그 극적인 구성과 아름다운 표현으로 청년 극작가였던 셰익스피어에게 커다란 명성을 가져다주었다. 또한 1597년 처음 출간된 이후, 『햄릿』과 함께 가장 많이 연극 무대에 오르는 셰익스피어의 작품으로 알려져 있다. 연극 외에도 음악, 미술, 영화, 뮤지컬, 오페라, 발레 등 다양한 형태로 공연되어 왔으며 ‘로미오와 줄리엣’은 운명적인 사랑에 빠진 연인의 대명사가 되었다. 민음사에서 출간한 『로미오와 줄리엣』은 기존에 번역된 ‘셰익스피어 4대 희극’과 『한여름 밤의 꿈』과 마찬가지로 연세대 최종철 교수가 셰익스피어의 원문에 충실하게 운문으로 번역하여 그 의미가 한층 더 깊다고 할 수 있다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x721 at 0x1400C3580&gt;</t>
         </is>
       </c>
     </row>
@@ -1561,28 +1549,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>북유럽신화</t>
+          <t>제프티는 다섯 살</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>닐 게이먼</t>
+          <t xml:space="preserve">
+&lt;제프티는 다섯 살&gt; “신이시여, 할란 엘리슨이네.”
+중단편 만으로 휴고상, 에드거상, 네뷸러상 등 각종 문학상을 
+60여 차례나 수상한 살아 있는 전설이자 미친 천재!
+“여기, 진짜가 나타났다.” 중단편만으로 휴고상, 에드거상, 네뷸러상, 브람스토커상, 세계판타지문학상 등 각종 문학상을 60여 차례나 수상한 SF, 판타지 소설계의 대부이자 살아 있는 전설, 미친 천재 할란 엘리슨의 국내 첫 작품집. 
+1,700여 편에 이르는 전방위적인 작품과 더불어, “작가는 모든 것을 알아야 한다”며 청소년 범죄에 관해 쓰기 위해 가짜 신분으로 브루클린 갱단에 들어갔고, 롤링 스톤즈 등과 함께 여행한 뒤 로큰롤을 묘사하기도 했으며, 흑인 참정권 운동을 위해 마틴 루터 킹 목사가 주도한 셀마-몽고메리 행진에 동참하기도 한 행동하는 자유주의자. 
+영화 &lt;터미네이터&gt;를 비롯해 자기 아이디어를 베꼈다고 생각한 영화 제작사들을 상대로 지독한 저작권 소송을 벌이고, 검열 반대 운동에 앞장서 국제 작가 연맹으로부터 ‘실버 펜’까지 수상한 ‘천재’, ‘괴물’, 그리고 ‘전설’ 그 자체인 할란 엘리슨의 대표 수상작 모음 전집.
+“할란 엘리슨은 자기 키가 159센티미터라고 하지만, 
+재능과 열정과 용기 면에서는 2미터가 넘는 거인이다.”
+— 아이작 아시모프</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;북유럽신화&gt; 
-37개국 출간 밀리언셀러
-아마존 선정 ‘올해의 책’
-“마블 영화팬이라면 반드시 이 책을 읽어라.
-마블 영화를 가장 재밌게 즐길 수 있는 방법이다.“ _아마존 독자
-전 세계 마블 팬들을 위한 스페셜 에디션 출간!
-이 시대 최고의 이야기꾼 닐 게이먼이 완성한
-세상에서 가장 재밌고 유익한 북유럽 신화
-지금 세상 사람들이 가장 열광하는 이야기는 무엇일까? 단언컨대 ‘마블 영화 시리즈’일 것이다. 남녀노소 가릴 것 없이 전 세계 어느 곳에서든 강력한 자신의 무기를 들고 우주를 날아다니는 히어로들을 통해 무한한 상상력과 재미, 감동에 흠뻑 빠져든 사람들을 쉽게 찾아볼 수 있다. 마블 영화 시리즈의 무엇이 이토록 많은 이들을 매혹시키는가? 그 열광과 매혹의 중심엔 ‘북유럽 신화’가 자리한다. 거대한 망치를 든 토르, 음험한 미소를 띤 로키, 한쪽 눈을 지혜와 바꾼 최고신 오딘, 아름다운 여신 프레이야…. 북유럽 신화에 등장하는 많은 신들이 곧 마블 히어로즈들의 원형이란 사실을 알고 나면, 마블 팬들의 영화를 보는 즐거움은 배가 되고, 지식은 더욱 풍요해진다. 그리하여 아마존 독자들은 이렇게 말한다. “마블 영화팬이라면 반드시 이 책을 읽어라. 이 책의 독서 경험이 곧 마블 영화를 가장 재밌게 즐길 수 있는 최고의 방법이다.”
-비단 마블 영화뿐 아니다. 북유럽 신화에 등장하는 많은 신들은 이미 우리 시대의 문화를 상징하는 아이콘으로 떠올라 있다. 지금껏 그리스·로마 신화에만 익숙했던 사람들에게 북유럽 신화는 새로운 역사와 상상력의 가능성을 열어준다. [뉴욕 타임스] [가디언] [워싱턴 포스트] [월 스트리트 저널] 등 글로벌 미디어들은 이 책 『북유럽 신화』에 대해 다음과 같이 격찬한다. “최고의 이야기꾼 닐 게이먼이 쓴 이 책을 우리가 읽어야 하는 이유는 명확하다. 북유럽 신화를 모른다는 것은, 인류 역사의 절반을 모르는 것과 같기 때문이다.”
-</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x690 at 0x14067B3A0&gt;</t>
         </is>
       </c>
     </row>
@@ -1592,20 +1578,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>셰익스피어 4대 비극+소네트 세트</t>
+          <t>호그와트의 영웅담, 고난의 순간, 그리고 위험한 취미</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>윌리엄 셰익스피어</t>
+          <t xml:space="preserve">
+&lt;호그와트의 영웅담, 고난의 순간, 그리고 위험한 취미&gt; ‘미네르바는 전사와 지혜를 지키는 로마 여신이었습니다. 윌리엄 맥고나걸은 영국 역사상 최악의 시인으로 추앙받습니다. 저는 윌리엄 맥고나걸이라는 이름뿐 아니라 이렇게 우스꽝스러운 맥고나걸의 먼 친척 중에 뛰어난 여성이 있을지도 모른다는 생각에서 벗어날 수가 없었습니다.’ - 조앤 K. 롤링
+포터모어 이야기들은 원래 pottermore.com에 게시되었던 조앤 K. 롤링의 짧은 글모음을 포터모어 독점 신작과 함께 제공합니다. 포터모어에서 선별한 이 eBook들은 해리 포터 시리즈 뒤에 숨겨진 이야기들을 여러분께 소개합니다. 조앤 K. 롤링은 해리 포터 시리즈를 쓸 때 받았던 영감, 각 캐릭터의 삶에 숨겨진 흥미로운 사실, 그리고 마법사들의 세계의 놀라운 점들을 풀어 놓았습니다. 영웅적 행위, 고난과 위험한 취미를 그린 다음 이야기들은 해리 포터 시리즈에서 가장 용감하고 가장 상징적인 두 캐릭터인 미네르바 맥고나걸과 리무스 루핀을 짤막하게 다룹니다. 조앤 K. 롤링은 사이빌 트릴로니의 삶에 드리워진 닫힌 커튼 뒤를 살짝 들여다볼 수 있도록 해 주며 무모한 성격이지만 마법 동물에 대한 사랑만은 극진했던 실바누스 케틀번도 만나볼 기회를 제공합니다.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;셰익스피어 4대 비극+소네트 세트&gt; 지금 이 순간에도 누군가 재해석하며, 누군가 연기한다
-덴마크 왕자 햄릿, 그 영원한 모나리자
-'서라, 거기 누구냐?' 라는 정체성에 대한 질문으로 시작되어 '나는 덴마크인 햄릿이다' 를 거쳐 '살아 있었다면, 훌륭한 국왕이 되었을 인물' 이라는 규명을 맺는 셰익스피어의 희곡 햄릿이다. 서구 문학사의 모나리자 혹은 스핑크스라 불릴 만큼 존재와 삶의 여러 문제들을 의문문 형식으로 제기한 햄릿은 존재 탐구의 여정을 죽음, 도덕적 양심, 복수와 그 정당성, 인간의 의지와 운명의 힘, 부권과 여성의 성적 억압 등 다양한 문제들을 동반하며 제시한다. 셰익스피어는 언어와 독자의 상상력으로 하나의 세계를 만들어 감으로써 그 해답의 가능성을 보여준 작가이다. 지금 이 순간에도 '햄릿'이 누군가에 의해 재해석되고 공연되고 있는 이유는 바로 여기에 있을 것이다. 이 책은 희곡 햄릿의 한국어판으로, 손안에 들어오는 사이즈로 휴대가 용이하도록 제작했으며 총 5막으로 구성되어 있다.</t>
+          <t>&lt;PIL.JpegImagePlugin.JpegImageFile image mode=RGB size=480x721 at 0x1230C4E20&gt;</t>
         </is>
       </c>
     </row>
